--- a/backend/fms_core/tests/valid_templates/Experiment_run_MGI_vtest.xlsx
+++ b/backend/fms_core/tests/valid_templates/Experiment_run_MGI_vtest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jchartrand/c3g/freezeman/backend/fms_core/tests/valid_templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasmineleblond-chartrand/c3g/freezeman/backend/fms_core/tests/valid_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE0B691-B688-384D-8C08-CC49E9EB07F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF83BC2B-CA62-D648-B4B5-1E83907175B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="1160" windowWidth="45000" windowHeight="17360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34340" yWindow="1660" windowWidth="25600" windowHeight="14420" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiments" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="455">
   <si>
     <t>Experiment Submission Template</t>
   </si>
@@ -1386,9 +1386,6 @@
   </si>
   <si>
     <t>containerMGI</t>
-  </si>
-  <si>
-    <t>2021-01-01</t>
   </si>
   <si>
     <t>CONTAINERWITHSAMPLETESTMGI</t>
@@ -1425,6 +1422,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1494,7 +1494,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1516,15 +1516,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1566,7 +1557,6 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1576,13 +1566,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1965,10 +1956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ106"/>
+  <dimension ref="A1:AMJ170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2168,14 +2159,14 @@
       <c r="D11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="F11" s="14" t="s">
+      <c r="E11" s="23">
+        <v>44228</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="22" t="s">
         <v>447</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>448</v>
       </c>
       <c r="H11" t="s">
         <v>39</v>
@@ -2187,161 +2178,161 @@
         <v>61</v>
       </c>
       <c r="K11" t="s">
+        <v>448</v>
+      </c>
+      <c r="L11" t="s">
         <v>449</v>
-      </c>
-      <c r="L11" t="s">
-        <v>450</v>
       </c>
       <c r="M11" t="s">
         <v>43</v>
       </c>
       <c r="N11" t="s">
+        <v>450</v>
+      </c>
+      <c r="O11" t="s">
         <v>451</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>452</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>453</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>454</v>
-      </c>
-      <c r="R11" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="E14" s="23"/>
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="E19" s="23"/>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="E20" s="23"/>
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="E22" s="7"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="E23" s="23"/>
       <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="E24" s="23"/>
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="E25" s="23"/>
       <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
-      <c r="E26" s="7"/>
+      <c r="E26" s="23"/>
       <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="E27" s="23"/>
       <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="E28" s="7"/>
+      <c r="E28" s="23"/>
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="E29" s="7"/>
+      <c r="E29" s="23"/>
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="E30" s="7"/>
+      <c r="E30" s="23"/>
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -2349,7 +2340,7 @@
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="E31" s="23"/>
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -2357,7 +2348,7 @@
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
+      <c r="E32" s="23"/>
       <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -2365,7 +2356,7 @@
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+      <c r="E33" s="23"/>
       <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -2373,7 +2364,7 @@
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
+      <c r="E34" s="23"/>
       <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -2381,7 +2372,7 @@
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+      <c r="E35" s="23"/>
       <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -2389,7 +2380,7 @@
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
+      <c r="E36" s="23"/>
       <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -2397,7 +2388,7 @@
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
+      <c r="E37" s="23"/>
       <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -2405,7 +2396,7 @@
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
+      <c r="E38" s="23"/>
       <c r="F38" s="7"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -2413,7 +2404,7 @@
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
+      <c r="E39" s="23"/>
       <c r="F39" s="7"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -2421,7 +2412,7 @@
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
+      <c r="E40" s="23"/>
       <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -2429,7 +2420,7 @@
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
+      <c r="E41" s="23"/>
       <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -2437,7 +2428,7 @@
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
+      <c r="E42" s="23"/>
       <c r="F42" s="7"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -2445,7 +2436,7 @@
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
+      <c r="E43" s="23"/>
       <c r="F43" s="7"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -2453,7 +2444,7 @@
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
+      <c r="E44" s="23"/>
       <c r="F44" s="7"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -2461,7 +2452,7 @@
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
+      <c r="E45" s="23"/>
       <c r="F45" s="7"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -2469,7 +2460,7 @@
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
+      <c r="E46" s="23"/>
       <c r="F46" s="7"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -2477,7 +2468,7 @@
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
+      <c r="E47" s="23"/>
       <c r="F47" s="7"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -2485,7 +2476,7 @@
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
+      <c r="E48" s="23"/>
       <c r="F48" s="7"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -2493,7 +2484,7 @@
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
+      <c r="E49" s="23"/>
       <c r="F49" s="7"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -2501,7 +2492,7 @@
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
+      <c r="E50" s="23"/>
       <c r="F50" s="7"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -2509,7 +2500,7 @@
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
+      <c r="E51" s="23"/>
       <c r="F51" s="7"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -2517,7 +2508,7 @@
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
+      <c r="E52" s="23"/>
       <c r="F52" s="7"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -2525,7 +2516,7 @@
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
+      <c r="E53" s="23"/>
       <c r="F53" s="7"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -2533,7 +2524,7 @@
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
+      <c r="E54" s="23"/>
       <c r="F54" s="7"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -2541,7 +2532,7 @@
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
+      <c r="E55" s="23"/>
       <c r="F55" s="7"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -2549,7 +2540,7 @@
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
+      <c r="E56" s="23"/>
       <c r="F56" s="7"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -2557,7 +2548,7 @@
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
+      <c r="E57" s="23"/>
       <c r="F57" s="7"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -2565,7 +2556,7 @@
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
+      <c r="E58" s="23"/>
       <c r="F58" s="7"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -2573,7 +2564,7 @@
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
+      <c r="E59" s="23"/>
       <c r="F59" s="7"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -2581,7 +2572,7 @@
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
+      <c r="E60" s="23"/>
       <c r="F60" s="7"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -2589,7 +2580,7 @@
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
+      <c r="E61" s="23"/>
       <c r="F61" s="7"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -2597,7 +2588,7 @@
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
+      <c r="E62" s="23"/>
       <c r="F62" s="7"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -2605,7 +2596,7 @@
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
+      <c r="E63" s="23"/>
       <c r="F63" s="7"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -2613,7 +2604,7 @@
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
+      <c r="E64" s="23"/>
       <c r="F64" s="7"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -2621,7 +2612,7 @@
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
+      <c r="E65" s="23"/>
       <c r="F65" s="7"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -2629,7 +2620,7 @@
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
+      <c r="E66" s="23"/>
       <c r="F66" s="7"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -2637,7 +2628,7 @@
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
+      <c r="E67" s="23"/>
       <c r="F67" s="7"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -2645,7 +2636,7 @@
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
+      <c r="E68" s="23"/>
       <c r="F68" s="7"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -2653,7 +2644,7 @@
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
+      <c r="E69" s="23"/>
       <c r="F69" s="7"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -2661,7 +2652,7 @@
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
+      <c r="E70" s="23"/>
       <c r="F70" s="7"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -2669,7 +2660,7 @@
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
+      <c r="E71" s="23"/>
       <c r="F71" s="7"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -2677,7 +2668,7 @@
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
+      <c r="E72" s="23"/>
       <c r="F72" s="7"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -2685,7 +2676,7 @@
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
+      <c r="E73" s="23"/>
       <c r="F73" s="7"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -2693,7 +2684,7 @@
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
+      <c r="E74" s="23"/>
       <c r="F74" s="7"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -2701,7 +2692,7 @@
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
+      <c r="E75" s="23"/>
       <c r="F75" s="7"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -2709,7 +2700,7 @@
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
+      <c r="E76" s="23"/>
       <c r="F76" s="7"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -2717,7 +2708,7 @@
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
+      <c r="E77" s="23"/>
       <c r="F77" s="7"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -2725,7 +2716,7 @@
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
+      <c r="E78" s="23"/>
       <c r="F78" s="7"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -2733,7 +2724,7 @@
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
+      <c r="E79" s="23"/>
       <c r="F79" s="7"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -2741,7 +2732,7 @@
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
+      <c r="E80" s="23"/>
       <c r="F80" s="7"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -2749,7 +2740,7 @@
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
+      <c r="E81" s="23"/>
       <c r="F81" s="7"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -2757,7 +2748,7 @@
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
+      <c r="E82" s="23"/>
       <c r="F82" s="7"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -2765,7 +2756,7 @@
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
+      <c r="E83" s="23"/>
       <c r="F83" s="7"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -2773,7 +2764,7 @@
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
+      <c r="E84" s="23"/>
       <c r="F84" s="7"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -2781,7 +2772,7 @@
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
+      <c r="E85" s="23"/>
       <c r="F85" s="7"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -2789,7 +2780,7 @@
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
+      <c r="E86" s="23"/>
       <c r="F86" s="7"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -2797,7 +2788,7 @@
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
+      <c r="E87" s="23"/>
       <c r="F87" s="7"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -2805,7 +2796,7 @@
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
+      <c r="E88" s="23"/>
       <c r="F88" s="7"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -2813,7 +2804,7 @@
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
+      <c r="E89" s="23"/>
       <c r="F89" s="7"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -2821,7 +2812,7 @@
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
+      <c r="E90" s="23"/>
       <c r="F90" s="7"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -2829,7 +2820,7 @@
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
+      <c r="E91" s="23"/>
       <c r="F91" s="7"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -2837,7 +2828,7 @@
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
+      <c r="E92" s="23"/>
       <c r="F92" s="7"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -2845,7 +2836,7 @@
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
+      <c r="E93" s="23"/>
       <c r="F93" s="7"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -2853,7 +2844,7 @@
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
+      <c r="E94" s="23"/>
       <c r="F94" s="7"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -2861,41 +2852,244 @@
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
+      <c r="E95" s="23"/>
       <c r="F95" s="7"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C96" s="7"/>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="E96" s="23"/>
+    </row>
+    <row r="97" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C97" s="7"/>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="E97" s="23"/>
+    </row>
+    <row r="98" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C98" s="7"/>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="E98" s="23"/>
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C99" s="7"/>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="E99" s="23"/>
+    </row>
+    <row r="100" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C100" s="7"/>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="E100" s="23"/>
+    </row>
+    <row r="101" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C101" s="7"/>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="E101" s="23"/>
+    </row>
+    <row r="102" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C102" s="7"/>
-    </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="E102" s="23"/>
+    </row>
+    <row r="103" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C103" s="7"/>
-    </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="E103" s="23"/>
+    </row>
+    <row r="104" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C104" s="7"/>
-    </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="E104" s="23"/>
+    </row>
+    <row r="105" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C105" s="7"/>
-    </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="E105" s="23"/>
+    </row>
+    <row r="106" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C106" s="7"/>
+      <c r="E106" s="23"/>
+    </row>
+    <row r="107" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E107" s="23"/>
+    </row>
+    <row r="108" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E108" s="23"/>
+    </row>
+    <row r="109" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E109" s="23"/>
+    </row>
+    <row r="110" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E110" s="23"/>
+    </row>
+    <row r="111" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E111" s="23"/>
+    </row>
+    <row r="112" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E112" s="23"/>
+    </row>
+    <row r="113" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E113" s="23"/>
+    </row>
+    <row r="114" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E114" s="23"/>
+    </row>
+    <row r="115" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E115" s="23"/>
+    </row>
+    <row r="116" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E116" s="23"/>
+    </row>
+    <row r="117" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E117" s="23"/>
+    </row>
+    <row r="118" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E118" s="23"/>
+    </row>
+    <row r="119" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E119" s="23"/>
+    </row>
+    <row r="120" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E120" s="23"/>
+    </row>
+    <row r="121" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E121" s="23"/>
+    </row>
+    <row r="122" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E122" s="23"/>
+    </row>
+    <row r="123" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E123" s="23"/>
+    </row>
+    <row r="124" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E124" s="23"/>
+    </row>
+    <row r="125" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E125" s="23"/>
+    </row>
+    <row r="126" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E126" s="23"/>
+    </row>
+    <row r="127" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E127" s="23"/>
+    </row>
+    <row r="128" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E128" s="23"/>
+    </row>
+    <row r="129" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E129" s="23"/>
+    </row>
+    <row r="130" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E130" s="23"/>
+    </row>
+    <row r="131" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E131" s="23"/>
+    </row>
+    <row r="132" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E132" s="23"/>
+    </row>
+    <row r="133" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E133" s="23"/>
+    </row>
+    <row r="134" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E134" s="23"/>
+    </row>
+    <row r="135" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E135" s="23"/>
+    </row>
+    <row r="136" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E136" s="23"/>
+    </row>
+    <row r="137" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E137" s="23"/>
+    </row>
+    <row r="138" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E138" s="23"/>
+    </row>
+    <row r="139" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E139" s="23"/>
+    </row>
+    <row r="140" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E140" s="23"/>
+    </row>
+    <row r="141" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E141" s="23"/>
+    </row>
+    <row r="142" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E142" s="23"/>
+    </row>
+    <row r="143" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E143" s="23"/>
+    </row>
+    <row r="144" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E144" s="23"/>
+    </row>
+    <row r="145" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E145" s="23"/>
+    </row>
+    <row r="146" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E146" s="23"/>
+    </row>
+    <row r="147" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E147" s="23"/>
+    </row>
+    <row r="148" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E148" s="23"/>
+    </row>
+    <row r="149" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E149" s="23"/>
+    </row>
+    <row r="150" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E150" s="23"/>
+    </row>
+    <row r="151" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E151" s="23"/>
+    </row>
+    <row r="152" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E152" s="23"/>
+    </row>
+    <row r="153" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E153" s="23"/>
+    </row>
+    <row r="154" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E154" s="23"/>
+    </row>
+    <row r="155" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E155" s="23"/>
+    </row>
+    <row r="156" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E156" s="23"/>
+    </row>
+    <row r="157" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E157" s="23"/>
+    </row>
+    <row r="158" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E158" s="23"/>
+    </row>
+    <row r="159" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E159" s="23"/>
+    </row>
+    <row r="160" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E160" s="23"/>
+    </row>
+    <row r="161" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E161" s="23"/>
+    </row>
+    <row r="162" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E162" s="23"/>
+    </row>
+    <row r="163" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E163" s="23"/>
+    </row>
+    <row r="164" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E164" s="23"/>
+    </row>
+    <row r="165" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E165" s="23"/>
+    </row>
+    <row r="166" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E166" s="23"/>
+    </row>
+    <row r="167" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E167" s="23"/>
+    </row>
+    <row r="168" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E168" s="23"/>
+    </row>
+    <row r="169" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E169" s="23"/>
+    </row>
+    <row r="170" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E170" s="23"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2974,8 +3168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMH19"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2993,43 +3187,46 @@
       </c>
     </row>
     <row r="3" spans="1:1022" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="16"/>
+      <c r="D3" s="15"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:1022" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:1022" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="AMF4" s="19"/>
-      <c r="AMG4" s="19"/>
-      <c r="AMH4" s="19"/>
+      <c r="AMF4" s="18"/>
+      <c r="AMG4" s="18"/>
+      <c r="AMH4" s="18"/>
     </row>
     <row r="5" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>443</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D5">
         <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
@@ -3087,7 +3284,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I385"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3102,16 +3301,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>35</v>
       </c>
       <c r="E1" t="s">
@@ -3131,16 +3330,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E2" t="s">
@@ -3160,16 +3359,16 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="C3" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>46</v>
       </c>
       <c r="E3" t="s">
@@ -3181,7 +3380,7 @@
       <c r="G3" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="19" t="s">
         <v>50</v>
       </c>
       <c r="I3" t="s">
@@ -3189,13 +3388,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="C4" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>53</v>
       </c>
       <c r="F4" t="s">
@@ -3204,7 +3403,7 @@
       <c r="G4" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="19" t="s">
         <v>56</v>
       </c>
       <c r="I4" t="s">
@@ -3212,20 +3411,20 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="21" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="C5" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>59</v>
       </c>
       <c r="G5" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="19" t="s">
         <v>61</v>
       </c>
       <c r="I5" t="s">
@@ -3233,28 +3432,28 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>63</v>
       </c>
       <c r="G6" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="19" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>66</v>
       </c>
       <c r="G7" t="s">
@@ -3262,3206 +3461,3206 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="20" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="20" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="20" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="20" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="20" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="20" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="20" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21" t="s">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="20" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="20" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="20" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="20" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21" t="s">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="20" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="20" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21" t="s">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="20" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21" t="s">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="20" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="20" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21" t="s">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="20" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21" t="s">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="20" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="21" t="s">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="20" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="21" t="s">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="20" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="21" t="s">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="20" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="21" t="s">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="20" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="21" t="s">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="21" t="s">
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="20" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="21" t="s">
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="20" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="21" t="s">
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="20" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="21" t="s">
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D38" s="20" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="21" t="s">
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="20" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="21" t="s">
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="20" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="21" t="s">
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="20" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="21" t="s">
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D42" s="20" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="21" t="s">
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D43" s="21" t="s">
+      <c r="D43" s="20" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="21" t="s">
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="20" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="21" t="s">
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D45" s="21" t="s">
+      <c r="D45" s="20" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="21" t="s">
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D46" s="21" t="s">
+      <c r="D46" s="20" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="21" t="s">
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="D47" s="21" t="s">
+      <c r="D47" s="20" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="21" t="s">
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="D48" s="21" t="s">
+      <c r="D48" s="20" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="21" t="s">
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="D49" s="21" t="s">
+      <c r="D49" s="20" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="21" t="s">
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D50" s="21" t="s">
+      <c r="D50" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="21" t="s">
+      <c r="A51" s="19"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D51" s="21" t="s">
+      <c r="D51" s="20" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="21" t="s">
+      <c r="A52" s="19"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="D52" s="21" t="s">
+      <c r="D52" s="20" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="21" t="s">
+      <c r="A53" s="19"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="D53" s="21" t="s">
+      <c r="D53" s="20" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="20"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="21" t="s">
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="D54" s="21" t="s">
+      <c r="D54" s="20" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="20"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="21" t="s">
+      <c r="A55" s="19"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="D55" s="21" t="s">
+      <c r="D55" s="20" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="20"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="21" t="s">
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="D56" s="21" t="s">
+      <c r="D56" s="20" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="20"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="21" t="s">
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="D57" s="20" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="20"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="21" t="s">
+      <c r="A58" s="19"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D58" s="21" t="s">
+      <c r="D58" s="20" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="20"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="21" t="s">
+      <c r="A59" s="19"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="D59" s="21" t="s">
+      <c r="D59" s="20" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="20"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="21" t="s">
+      <c r="A60" s="19"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="D60" s="21" t="s">
+      <c r="D60" s="20" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="20"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="21" t="s">
+      <c r="A61" s="19"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="D61" s="21" t="s">
+      <c r="D61" s="20" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="20"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="21" t="s">
+      <c r="A62" s="19"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="D62" s="21" t="s">
+      <c r="D62" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="20"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="21" t="s">
+      <c r="A63" s="19"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="D63" s="21" t="s">
+      <c r="D63" s="20" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="20"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="21" t="s">
+      <c r="A64" s="19"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="D64" s="21" t="s">
+      <c r="D64" s="20" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="20"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="21" t="s">
+      <c r="A65" s="19"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="D65" s="21" t="s">
+      <c r="D65" s="20" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="20"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="21" t="s">
+      <c r="A66" s="19"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="D66" s="21" t="s">
+      <c r="D66" s="20" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="20"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="21" t="s">
+      <c r="A67" s="19"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="D67" s="21" t="s">
+      <c r="D67" s="20" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="20"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21" t="s">
+      <c r="A68" s="19"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="D68" s="21" t="s">
+      <c r="D68" s="20" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="20"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="21" t="s">
+      <c r="A69" s="19"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="D69" s="21" t="s">
+      <c r="D69" s="20" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="20"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="21" t="s">
+      <c r="A70" s="19"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="D70" s="21" t="s">
+      <c r="D70" s="20" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="20"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="21" t="s">
+      <c r="A71" s="19"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="D71" s="21" t="s">
+      <c r="D71" s="20" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="20"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="21" t="s">
+      <c r="A72" s="19"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D72" s="21" t="s">
+      <c r="D72" s="20" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="20"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="21" t="s">
+      <c r="A73" s="19"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="D73" s="21" t="s">
+      <c r="D73" s="20" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="20"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="21" t="s">
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D74" s="21" t="s">
+      <c r="D74" s="20" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="20"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="21" t="s">
+      <c r="A75" s="19"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="D75" s="21" t="s">
+      <c r="D75" s="20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="20"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="21" t="s">
+      <c r="A76" s="19"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="D76" s="21" t="s">
+      <c r="D76" s="20" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="20"/>
-      <c r="B77" s="20"/>
-      <c r="C77" s="21" t="s">
+      <c r="A77" s="19"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="D77" s="21" t="s">
+      <c r="D77" s="20" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="20"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="21" t="s">
+      <c r="A78" s="19"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="D78" s="21" t="s">
+      <c r="D78" s="20" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="20"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="21" t="s">
+      <c r="A79" s="19"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="D79" s="21" t="s">
+      <c r="D79" s="20" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="20"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="21" t="s">
+      <c r="A80" s="19"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D80" s="21" t="s">
+      <c r="D80" s="20" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="20"/>
-      <c r="B81" s="20"/>
-      <c r="C81" s="21" t="s">
+      <c r="A81" s="19"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="D81" s="21" t="s">
+      <c r="D81" s="20" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="20"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="21" t="s">
+      <c r="A82" s="19"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="D82" s="21" t="s">
+      <c r="D82" s="20" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="20"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="21" t="s">
+      <c r="A83" s="19"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="D83" s="21" t="s">
+      <c r="D83" s="20" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="20"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="21" t="s">
+      <c r="A84" s="19"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="D84" s="21" t="s">
+      <c r="D84" s="20" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="20"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="21" t="s">
+      <c r="A85" s="19"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D85" s="21" t="s">
+      <c r="D85" s="20" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="20"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="21" t="s">
+      <c r="A86" s="19"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="D86" s="21" t="s">
+      <c r="D86" s="20" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="20"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="21" t="s">
+      <c r="A87" s="19"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="D87" s="21" t="s">
+      <c r="D87" s="20" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="20"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="21" t="s">
+      <c r="A88" s="19"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="D88" s="21" t="s">
+      <c r="D88" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="20"/>
-      <c r="B89" s="20"/>
-      <c r="C89" s="21" t="s">
+      <c r="A89" s="19"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="D89" s="21" t="s">
+      <c r="D89" s="20" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="20"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="21" t="s">
+      <c r="A90" s="19"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="D90" s="21" t="s">
+      <c r="D90" s="20" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="20"/>
-      <c r="B91" s="20"/>
-      <c r="C91" s="21" t="s">
+      <c r="A91" s="19"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="D91" s="21" t="s">
+      <c r="D91" s="20" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="20"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="21" t="s">
+      <c r="A92" s="19"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="D92" s="21" t="s">
+      <c r="D92" s="20" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="20"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="21" t="s">
+      <c r="A93" s="19"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D93" s="21" t="s">
+      <c r="D93" s="20" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="20"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="21" t="s">
+      <c r="A94" s="19"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="D94" s="21" t="s">
+      <c r="D94" s="20" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="20"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="21" t="s">
+      <c r="A95" s="19"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="D95" s="21" t="s">
+      <c r="D95" s="20" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="20"/>
-      <c r="B96" s="20"/>
-      <c r="C96" s="21" t="s">
+      <c r="A96" s="19"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="D96" s="21" t="s">
+      <c r="D96" s="20" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="20"/>
-      <c r="B97" s="20"/>
-      <c r="C97" s="21" t="s">
+      <c r="A97" s="19"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D97" s="21" t="s">
+      <c r="D97" s="20" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="20"/>
-      <c r="B98" s="20"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="21" t="s">
+      <c r="A98" s="19"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="20" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="20"/>
-      <c r="B99" s="20"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="21" t="s">
+      <c r="A99" s="19"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="20" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="20"/>
-      <c r="B100" s="20"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="21" t="s">
+      <c r="A100" s="19"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="20" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="20"/>
-      <c r="B101" s="20"/>
-      <c r="C101" s="20"/>
-      <c r="D101" s="21" t="s">
+      <c r="A101" s="19"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="20" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="20"/>
-      <c r="B102" s="20"/>
-      <c r="C102" s="20"/>
-      <c r="D102" s="21" t="s">
+      <c r="A102" s="19"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="20" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="20"/>
-      <c r="B103" s="20"/>
-      <c r="C103" s="20"/>
-      <c r="D103" s="21" t="s">
+      <c r="A103" s="19"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="20" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="20"/>
-      <c r="B104" s="20"/>
-      <c r="C104" s="20"/>
-      <c r="D104" s="21" t="s">
+      <c r="A104" s="19"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="20" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="20"/>
-      <c r="B105" s="20"/>
-      <c r="C105" s="20"/>
-      <c r="D105" s="21" t="s">
+      <c r="A105" s="19"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="20" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="20"/>
-      <c r="B106" s="20"/>
-      <c r="C106" s="20"/>
-      <c r="D106" s="21" t="s">
+      <c r="A106" s="19"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="20" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="20"/>
-      <c r="B107" s="20"/>
-      <c r="C107" s="20"/>
-      <c r="D107" s="21" t="s">
+      <c r="A107" s="19"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="20" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="20"/>
-      <c r="B108" s="20"/>
-      <c r="C108" s="20"/>
-      <c r="D108" s="21" t="s">
+      <c r="A108" s="19"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="20" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="20"/>
-      <c r="B109" s="20"/>
-      <c r="C109" s="20"/>
-      <c r="D109" s="21" t="s">
+      <c r="A109" s="19"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="20" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="20"/>
-      <c r="B110" s="20"/>
-      <c r="C110" s="20"/>
-      <c r="D110" s="21" t="s">
+      <c r="A110" s="19"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="20" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="20"/>
-      <c r="B111" s="20"/>
-      <c r="C111" s="20"/>
-      <c r="D111" s="21" t="s">
+      <c r="A111" s="19"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="20" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="20"/>
-      <c r="B112" s="20"/>
-      <c r="C112" s="20"/>
-      <c r="D112" s="21" t="s">
+      <c r="A112" s="19"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="20" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="20"/>
-      <c r="B113" s="20"/>
-      <c r="C113" s="20"/>
-      <c r="D113" s="21" t="s">
+      <c r="A113" s="19"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="20" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="20"/>
-      <c r="B114" s="20"/>
-      <c r="C114" s="20"/>
-      <c r="D114" s="21" t="s">
+      <c r="A114" s="19"/>
+      <c r="B114" s="19"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="20" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="20"/>
-      <c r="B115" s="20"/>
-      <c r="C115" s="20"/>
-      <c r="D115" s="21" t="s">
+      <c r="A115" s="19"/>
+      <c r="B115" s="19"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="20" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="20"/>
-      <c r="B116" s="20"/>
-      <c r="C116" s="20"/>
-      <c r="D116" s="21" t="s">
+      <c r="A116" s="19"/>
+      <c r="B116" s="19"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="20" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="20"/>
-      <c r="B117" s="20"/>
-      <c r="C117" s="20"/>
-      <c r="D117" s="21" t="s">
+      <c r="A117" s="19"/>
+      <c r="B117" s="19"/>
+      <c r="C117" s="19"/>
+      <c r="D117" s="20" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="20"/>
-      <c r="B118" s="20"/>
-      <c r="C118" s="20"/>
-      <c r="D118" s="21" t="s">
+      <c r="A118" s="19"/>
+      <c r="B118" s="19"/>
+      <c r="C118" s="19"/>
+      <c r="D118" s="20" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="20"/>
-      <c r="B119" s="20"/>
-      <c r="C119" s="20"/>
-      <c r="D119" s="21" t="s">
+      <c r="A119" s="19"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="19"/>
+      <c r="D119" s="20" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="20"/>
-      <c r="B120" s="20"/>
-      <c r="C120" s="20"/>
-      <c r="D120" s="21" t="s">
+      <c r="A120" s="19"/>
+      <c r="B120" s="19"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="20" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="20"/>
-      <c r="B121" s="20"/>
-      <c r="C121" s="20"/>
-      <c r="D121" s="21" t="s">
+      <c r="A121" s="19"/>
+      <c r="B121" s="19"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="20" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="20"/>
-      <c r="B122" s="20"/>
-      <c r="C122" s="20"/>
-      <c r="D122" s="21" t="s">
+      <c r="A122" s="19"/>
+      <c r="B122" s="19"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="20" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="20"/>
-      <c r="B123" s="20"/>
-      <c r="C123" s="20"/>
-      <c r="D123" s="21" t="s">
+      <c r="A123" s="19"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="20" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="20"/>
-      <c r="B124" s="20"/>
-      <c r="C124" s="20"/>
-      <c r="D124" s="21" t="s">
+      <c r="A124" s="19"/>
+      <c r="B124" s="19"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="20" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="20"/>
-      <c r="B125" s="20"/>
-      <c r="C125" s="20"/>
-      <c r="D125" s="21" t="s">
+      <c r="A125" s="19"/>
+      <c r="B125" s="19"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="20" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="20"/>
-      <c r="B126" s="20"/>
-      <c r="C126" s="20"/>
-      <c r="D126" s="21" t="s">
+      <c r="A126" s="19"/>
+      <c r="B126" s="19"/>
+      <c r="C126" s="19"/>
+      <c r="D126" s="20" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="20"/>
-      <c r="B127" s="20"/>
-      <c r="C127" s="20"/>
-      <c r="D127" s="21" t="s">
+      <c r="A127" s="19"/>
+      <c r="B127" s="19"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="20" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="20"/>
-      <c r="B128" s="20"/>
-      <c r="C128" s="20"/>
-      <c r="D128" s="21" t="s">
+      <c r="A128" s="19"/>
+      <c r="B128" s="19"/>
+      <c r="C128" s="19"/>
+      <c r="D128" s="20" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="20"/>
-      <c r="B129" s="20"/>
-      <c r="C129" s="20"/>
-      <c r="D129" s="21" t="s">
+      <c r="A129" s="19"/>
+      <c r="B129" s="19"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="20" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="20"/>
-      <c r="B130" s="20"/>
-      <c r="C130" s="20"/>
-      <c r="D130" s="21" t="s">
+      <c r="A130" s="19"/>
+      <c r="B130" s="19"/>
+      <c r="C130" s="19"/>
+      <c r="D130" s="20" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="20"/>
-      <c r="B131" s="20"/>
-      <c r="C131" s="20"/>
-      <c r="D131" s="21" t="s">
+      <c r="A131" s="19"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="19"/>
+      <c r="D131" s="20" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="20"/>
-      <c r="B132" s="20"/>
-      <c r="C132" s="20"/>
-      <c r="D132" s="21" t="s">
+      <c r="A132" s="19"/>
+      <c r="B132" s="19"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="20" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="20"/>
-      <c r="B133" s="20"/>
-      <c r="C133" s="20"/>
-      <c r="D133" s="21" t="s">
+      <c r="A133" s="19"/>
+      <c r="B133" s="19"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="20" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="20"/>
-      <c r="B134" s="20"/>
-      <c r="C134" s="20"/>
-      <c r="D134" s="21" t="s">
+      <c r="A134" s="19"/>
+      <c r="B134" s="19"/>
+      <c r="C134" s="19"/>
+      <c r="D134" s="20" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="20"/>
-      <c r="B135" s="20"/>
-      <c r="C135" s="20"/>
-      <c r="D135" s="21" t="s">
+      <c r="A135" s="19"/>
+      <c r="B135" s="19"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="20" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="20"/>
-      <c r="B136" s="20"/>
-      <c r="C136" s="20"/>
-      <c r="D136" s="21" t="s">
+      <c r="A136" s="19"/>
+      <c r="B136" s="19"/>
+      <c r="C136" s="19"/>
+      <c r="D136" s="20" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="20"/>
-      <c r="B137" s="20"/>
-      <c r="C137" s="20"/>
-      <c r="D137" s="21" t="s">
+      <c r="A137" s="19"/>
+      <c r="B137" s="19"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="20" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="20"/>
-      <c r="B138" s="20"/>
-      <c r="C138" s="20"/>
-      <c r="D138" s="21" t="s">
+      <c r="A138" s="19"/>
+      <c r="B138" s="19"/>
+      <c r="C138" s="19"/>
+      <c r="D138" s="20" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="20"/>
-      <c r="B139" s="20"/>
-      <c r="C139" s="20"/>
-      <c r="D139" s="21" t="s">
+      <c r="A139" s="19"/>
+      <c r="B139" s="19"/>
+      <c r="C139" s="19"/>
+      <c r="D139" s="20" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="20"/>
-      <c r="B140" s="20"/>
-      <c r="C140" s="20"/>
-      <c r="D140" s="21" t="s">
+      <c r="A140" s="19"/>
+      <c r="B140" s="19"/>
+      <c r="C140" s="19"/>
+      <c r="D140" s="20" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="20"/>
-      <c r="B141" s="20"/>
-      <c r="C141" s="20"/>
-      <c r="D141" s="21" t="s">
+      <c r="A141" s="19"/>
+      <c r="B141" s="19"/>
+      <c r="C141" s="19"/>
+      <c r="D141" s="20" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="20"/>
-      <c r="B142" s="20"/>
-      <c r="C142" s="20"/>
-      <c r="D142" s="21" t="s">
+      <c r="A142" s="19"/>
+      <c r="B142" s="19"/>
+      <c r="C142" s="19"/>
+      <c r="D142" s="20" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="20"/>
-      <c r="B143" s="20"/>
-      <c r="C143" s="20"/>
-      <c r="D143" s="21" t="s">
+      <c r="A143" s="19"/>
+      <c r="B143" s="19"/>
+      <c r="C143" s="19"/>
+      <c r="D143" s="20" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="20"/>
-      <c r="B144" s="20"/>
-      <c r="C144" s="20"/>
-      <c r="D144" s="21" t="s">
+      <c r="A144" s="19"/>
+      <c r="B144" s="19"/>
+      <c r="C144" s="19"/>
+      <c r="D144" s="20" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="20"/>
-      <c r="B145" s="20"/>
-      <c r="C145" s="20"/>
-      <c r="D145" s="21" t="s">
+      <c r="A145" s="19"/>
+      <c r="B145" s="19"/>
+      <c r="C145" s="19"/>
+      <c r="D145" s="20" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="20"/>
-      <c r="B146" s="20"/>
-      <c r="C146" s="20"/>
-      <c r="D146" s="21" t="s">
+      <c r="A146" s="19"/>
+      <c r="B146" s="19"/>
+      <c r="C146" s="19"/>
+      <c r="D146" s="20" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="20"/>
-      <c r="B147" s="20"/>
-      <c r="C147" s="20"/>
-      <c r="D147" s="21" t="s">
+      <c r="A147" s="19"/>
+      <c r="B147" s="19"/>
+      <c r="C147" s="19"/>
+      <c r="D147" s="20" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="20"/>
-      <c r="B148" s="20"/>
-      <c r="C148" s="20"/>
-      <c r="D148" s="21" t="s">
+      <c r="A148" s="19"/>
+      <c r="B148" s="19"/>
+      <c r="C148" s="19"/>
+      <c r="D148" s="20" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="20"/>
-      <c r="B149" s="20"/>
-      <c r="C149" s="20"/>
-      <c r="D149" s="21" t="s">
+      <c r="A149" s="19"/>
+      <c r="B149" s="19"/>
+      <c r="C149" s="19"/>
+      <c r="D149" s="20" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="20"/>
-      <c r="B150" s="20"/>
-      <c r="C150" s="20"/>
-      <c r="D150" s="21" t="s">
+      <c r="A150" s="19"/>
+      <c r="B150" s="19"/>
+      <c r="C150" s="19"/>
+      <c r="D150" s="20" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="20"/>
-      <c r="B151" s="20"/>
-      <c r="C151" s="20"/>
-      <c r="D151" s="21" t="s">
+      <c r="A151" s="19"/>
+      <c r="B151" s="19"/>
+      <c r="C151" s="19"/>
+      <c r="D151" s="20" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="20"/>
-      <c r="B152" s="20"/>
-      <c r="C152" s="20"/>
-      <c r="D152" s="21" t="s">
+      <c r="A152" s="19"/>
+      <c r="B152" s="19"/>
+      <c r="C152" s="19"/>
+      <c r="D152" s="20" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="20"/>
-      <c r="B153" s="20"/>
-      <c r="C153" s="20"/>
-      <c r="D153" s="21" t="s">
+      <c r="A153" s="19"/>
+      <c r="B153" s="19"/>
+      <c r="C153" s="19"/>
+      <c r="D153" s="20" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="20"/>
-      <c r="B154" s="20"/>
-      <c r="C154" s="20"/>
-      <c r="D154" s="21" t="s">
+      <c r="A154" s="19"/>
+      <c r="B154" s="19"/>
+      <c r="C154" s="19"/>
+      <c r="D154" s="20" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" s="20"/>
-      <c r="B155" s="20"/>
-      <c r="C155" s="20"/>
-      <c r="D155" s="21" t="s">
+      <c r="A155" s="19"/>
+      <c r="B155" s="19"/>
+      <c r="C155" s="19"/>
+      <c r="D155" s="20" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="20"/>
-      <c r="B156" s="20"/>
-      <c r="C156" s="20"/>
-      <c r="D156" s="21" t="s">
+      <c r="A156" s="19"/>
+      <c r="B156" s="19"/>
+      <c r="C156" s="19"/>
+      <c r="D156" s="20" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="20"/>
-      <c r="B157" s="20"/>
-      <c r="C157" s="20"/>
-      <c r="D157" s="21" t="s">
+      <c r="A157" s="19"/>
+      <c r="B157" s="19"/>
+      <c r="C157" s="19"/>
+      <c r="D157" s="20" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="20"/>
-      <c r="B158" s="20"/>
-      <c r="C158" s="20"/>
-      <c r="D158" s="21" t="s">
+      <c r="A158" s="19"/>
+      <c r="B158" s="19"/>
+      <c r="C158" s="19"/>
+      <c r="D158" s="20" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="20"/>
-      <c r="B159" s="20"/>
-      <c r="C159" s="20"/>
-      <c r="D159" s="21" t="s">
+      <c r="A159" s="19"/>
+      <c r="B159" s="19"/>
+      <c r="C159" s="19"/>
+      <c r="D159" s="20" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="20"/>
-      <c r="B160" s="20"/>
-      <c r="C160" s="20"/>
-      <c r="D160" s="21" t="s">
+      <c r="A160" s="19"/>
+      <c r="B160" s="19"/>
+      <c r="C160" s="19"/>
+      <c r="D160" s="20" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" s="20"/>
-      <c r="B161" s="20"/>
-      <c r="C161" s="20"/>
-      <c r="D161" s="21" t="s">
+      <c r="A161" s="19"/>
+      <c r="B161" s="19"/>
+      <c r="C161" s="19"/>
+      <c r="D161" s="20" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" s="20"/>
-      <c r="B162" s="20"/>
-      <c r="C162" s="20"/>
-      <c r="D162" s="21" t="s">
+      <c r="A162" s="19"/>
+      <c r="B162" s="19"/>
+      <c r="C162" s="19"/>
+      <c r="D162" s="20" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="20"/>
-      <c r="B163" s="20"/>
-      <c r="C163" s="20"/>
-      <c r="D163" s="21" t="s">
+      <c r="A163" s="19"/>
+      <c r="B163" s="19"/>
+      <c r="C163" s="19"/>
+      <c r="D163" s="20" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" s="20"/>
-      <c r="B164" s="20"/>
-      <c r="C164" s="20"/>
-      <c r="D164" s="21" t="s">
+      <c r="A164" s="19"/>
+      <c r="B164" s="19"/>
+      <c r="C164" s="19"/>
+      <c r="D164" s="20" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" s="20"/>
-      <c r="B165" s="20"/>
-      <c r="C165" s="20"/>
-      <c r="D165" s="21" t="s">
+      <c r="A165" s="19"/>
+      <c r="B165" s="19"/>
+      <c r="C165" s="19"/>
+      <c r="D165" s="20" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" s="20"/>
-      <c r="B166" s="20"/>
-      <c r="C166" s="20"/>
-      <c r="D166" s="21" t="s">
+      <c r="A166" s="19"/>
+      <c r="B166" s="19"/>
+      <c r="C166" s="19"/>
+      <c r="D166" s="20" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" s="20"/>
-      <c r="B167" s="20"/>
-      <c r="C167" s="20"/>
-      <c r="D167" s="21" t="s">
+      <c r="A167" s="19"/>
+      <c r="B167" s="19"/>
+      <c r="C167" s="19"/>
+      <c r="D167" s="20" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" s="20"/>
-      <c r="B168" s="20"/>
-      <c r="C168" s="20"/>
-      <c r="D168" s="21" t="s">
+      <c r="A168" s="19"/>
+      <c r="B168" s="19"/>
+      <c r="C168" s="19"/>
+      <c r="D168" s="20" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" s="20"/>
-      <c r="B169" s="20"/>
-      <c r="C169" s="20"/>
-      <c r="D169" s="21" t="s">
+      <c r="A169" s="19"/>
+      <c r="B169" s="19"/>
+      <c r="C169" s="19"/>
+      <c r="D169" s="20" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="20"/>
-      <c r="B170" s="20"/>
-      <c r="C170" s="20"/>
-      <c r="D170" s="21" t="s">
+      <c r="A170" s="19"/>
+      <c r="B170" s="19"/>
+      <c r="C170" s="19"/>
+      <c r="D170" s="20" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" s="20"/>
-      <c r="B171" s="20"/>
-      <c r="C171" s="20"/>
-      <c r="D171" s="21" t="s">
+      <c r="A171" s="19"/>
+      <c r="B171" s="19"/>
+      <c r="C171" s="19"/>
+      <c r="D171" s="20" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A172" s="20"/>
-      <c r="B172" s="20"/>
-      <c r="C172" s="20"/>
-      <c r="D172" s="21" t="s">
+      <c r="A172" s="19"/>
+      <c r="B172" s="19"/>
+      <c r="C172" s="19"/>
+      <c r="D172" s="20" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" s="20"/>
-      <c r="B173" s="20"/>
-      <c r="C173" s="20"/>
-      <c r="D173" s="21" t="s">
+      <c r="A173" s="19"/>
+      <c r="B173" s="19"/>
+      <c r="C173" s="19"/>
+      <c r="D173" s="20" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" s="20"/>
-      <c r="B174" s="20"/>
-      <c r="C174" s="20"/>
-      <c r="D174" s="21" t="s">
+      <c r="A174" s="19"/>
+      <c r="B174" s="19"/>
+      <c r="C174" s="19"/>
+      <c r="D174" s="20" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="20"/>
-      <c r="B175" s="20"/>
-      <c r="C175" s="20"/>
-      <c r="D175" s="21" t="s">
+      <c r="A175" s="19"/>
+      <c r="B175" s="19"/>
+      <c r="C175" s="19"/>
+      <c r="D175" s="20" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" s="20"/>
-      <c r="B176" s="20"/>
-      <c r="C176" s="20"/>
-      <c r="D176" s="21" t="s">
+      <c r="A176" s="19"/>
+      <c r="B176" s="19"/>
+      <c r="C176" s="19"/>
+      <c r="D176" s="20" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" s="20"/>
-      <c r="B177" s="20"/>
-      <c r="C177" s="20"/>
-      <c r="D177" s="21" t="s">
+      <c r="A177" s="19"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
+      <c r="D177" s="20" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" s="20"/>
-      <c r="B178" s="20"/>
-      <c r="C178" s="20"/>
-      <c r="D178" s="21" t="s">
+      <c r="A178" s="19"/>
+      <c r="B178" s="19"/>
+      <c r="C178" s="19"/>
+      <c r="D178" s="20" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" s="20"/>
-      <c r="B179" s="20"/>
-      <c r="C179" s="20"/>
-      <c r="D179" s="21" t="s">
+      <c r="A179" s="19"/>
+      <c r="B179" s="19"/>
+      <c r="C179" s="19"/>
+      <c r="D179" s="20" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" s="20"/>
-      <c r="B180" s="20"/>
-      <c r="C180" s="20"/>
-      <c r="D180" s="21" t="s">
+      <c r="A180" s="19"/>
+      <c r="B180" s="19"/>
+      <c r="C180" s="19"/>
+      <c r="D180" s="20" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" s="20"/>
-      <c r="B181" s="20"/>
-      <c r="C181" s="20"/>
-      <c r="D181" s="21" t="s">
+      <c r="A181" s="19"/>
+      <c r="B181" s="19"/>
+      <c r="C181" s="19"/>
+      <c r="D181" s="20" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" s="20"/>
-      <c r="B182" s="20"/>
-      <c r="C182" s="20"/>
-      <c r="D182" s="21" t="s">
+      <c r="A182" s="19"/>
+      <c r="B182" s="19"/>
+      <c r="C182" s="19"/>
+      <c r="D182" s="20" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="20"/>
-      <c r="B183" s="20"/>
-      <c r="C183" s="20"/>
-      <c r="D183" s="21" t="s">
+      <c r="A183" s="19"/>
+      <c r="B183" s="19"/>
+      <c r="C183" s="19"/>
+      <c r="D183" s="20" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" s="20"/>
-      <c r="B184" s="20"/>
-      <c r="C184" s="20"/>
-      <c r="D184" s="21" t="s">
+      <c r="A184" s="19"/>
+      <c r="B184" s="19"/>
+      <c r="C184" s="19"/>
+      <c r="D184" s="20" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" s="20"/>
-      <c r="B185" s="20"/>
-      <c r="C185" s="20"/>
-      <c r="D185" s="21" t="s">
+      <c r="A185" s="19"/>
+      <c r="B185" s="19"/>
+      <c r="C185" s="19"/>
+      <c r="D185" s="20" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A186" s="20"/>
-      <c r="B186" s="20"/>
-      <c r="C186" s="20"/>
-      <c r="D186" s="21" t="s">
+      <c r="A186" s="19"/>
+      <c r="B186" s="19"/>
+      <c r="C186" s="19"/>
+      <c r="D186" s="20" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="20"/>
-      <c r="B187" s="20"/>
-      <c r="C187" s="20"/>
-      <c r="D187" s="21" t="s">
+      <c r="A187" s="19"/>
+      <c r="B187" s="19"/>
+      <c r="C187" s="19"/>
+      <c r="D187" s="20" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="20"/>
-      <c r="B188" s="20"/>
-      <c r="C188" s="20"/>
-      <c r="D188" s="21" t="s">
+      <c r="A188" s="19"/>
+      <c r="B188" s="19"/>
+      <c r="C188" s="19"/>
+      <c r="D188" s="20" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="20"/>
-      <c r="B189" s="20"/>
-      <c r="C189" s="20"/>
-      <c r="D189" s="21" t="s">
+      <c r="A189" s="19"/>
+      <c r="B189" s="19"/>
+      <c r="C189" s="19"/>
+      <c r="D189" s="20" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="20"/>
-      <c r="B190" s="20"/>
-      <c r="C190" s="20"/>
-      <c r="D190" s="21" t="s">
+      <c r="A190" s="19"/>
+      <c r="B190" s="19"/>
+      <c r="C190" s="19"/>
+      <c r="D190" s="20" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="20"/>
-      <c r="B191" s="20"/>
-      <c r="C191" s="20"/>
-      <c r="D191" s="21" t="s">
+      <c r="A191" s="19"/>
+      <c r="B191" s="19"/>
+      <c r="C191" s="19"/>
+      <c r="D191" s="20" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="20"/>
-      <c r="B192" s="20"/>
-      <c r="C192" s="20"/>
-      <c r="D192" s="21" t="s">
+      <c r="A192" s="19"/>
+      <c r="B192" s="19"/>
+      <c r="C192" s="19"/>
+      <c r="D192" s="20" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="20"/>
-      <c r="B193" s="20"/>
-      <c r="C193" s="20"/>
-      <c r="D193" s="21" t="s">
+      <c r="A193" s="19"/>
+      <c r="B193" s="19"/>
+      <c r="C193" s="19"/>
+      <c r="D193" s="20" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="20"/>
-      <c r="B194" s="20"/>
-      <c r="C194" s="20"/>
-      <c r="D194" s="21" t="s">
+      <c r="A194" s="19"/>
+      <c r="B194" s="19"/>
+      <c r="C194" s="19"/>
+      <c r="D194" s="20" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="20"/>
-      <c r="B195" s="20"/>
-      <c r="C195" s="20"/>
-      <c r="D195" s="21" t="s">
+      <c r="A195" s="19"/>
+      <c r="B195" s="19"/>
+      <c r="C195" s="19"/>
+      <c r="D195" s="20" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="20"/>
-      <c r="B196" s="20"/>
-      <c r="C196" s="20"/>
-      <c r="D196" s="21" t="s">
+      <c r="A196" s="19"/>
+      <c r="B196" s="19"/>
+      <c r="C196" s="19"/>
+      <c r="D196" s="20" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197" s="20"/>
-      <c r="B197" s="20"/>
-      <c r="C197" s="20"/>
-      <c r="D197" s="21" t="s">
+      <c r="A197" s="19"/>
+      <c r="B197" s="19"/>
+      <c r="C197" s="19"/>
+      <c r="D197" s="20" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="20"/>
-      <c r="B198" s="20"/>
-      <c r="C198" s="20"/>
-      <c r="D198" s="21" t="s">
+      <c r="A198" s="19"/>
+      <c r="B198" s="19"/>
+      <c r="C198" s="19"/>
+      <c r="D198" s="20" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="20"/>
-      <c r="B199" s="20"/>
-      <c r="C199" s="20"/>
-      <c r="D199" s="21" t="s">
+      <c r="A199" s="19"/>
+      <c r="B199" s="19"/>
+      <c r="C199" s="19"/>
+      <c r="D199" s="20" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="20"/>
-      <c r="B200" s="20"/>
-      <c r="C200" s="20"/>
-      <c r="D200" s="21" t="s">
+      <c r="A200" s="19"/>
+      <c r="B200" s="19"/>
+      <c r="C200" s="19"/>
+      <c r="D200" s="20" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="20"/>
-      <c r="B201" s="20"/>
-      <c r="C201" s="20"/>
-      <c r="D201" s="21" t="s">
+      <c r="A201" s="19"/>
+      <c r="B201" s="19"/>
+      <c r="C201" s="19"/>
+      <c r="D201" s="20" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="20"/>
-      <c r="B202" s="20"/>
-      <c r="C202" s="20"/>
-      <c r="D202" s="21" t="s">
+      <c r="A202" s="19"/>
+      <c r="B202" s="19"/>
+      <c r="C202" s="19"/>
+      <c r="D202" s="20" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="20"/>
-      <c r="B203" s="20"/>
-      <c r="C203" s="20"/>
-      <c r="D203" s="21" t="s">
+      <c r="A203" s="19"/>
+      <c r="B203" s="19"/>
+      <c r="C203" s="19"/>
+      <c r="D203" s="20" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="20"/>
-      <c r="B204" s="20"/>
-      <c r="C204" s="20"/>
-      <c r="D204" s="21" t="s">
+      <c r="A204" s="19"/>
+      <c r="B204" s="19"/>
+      <c r="C204" s="19"/>
+      <c r="D204" s="20" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="20"/>
-      <c r="B205" s="20"/>
-      <c r="C205" s="20"/>
-      <c r="D205" s="21" t="s">
+      <c r="A205" s="19"/>
+      <c r="B205" s="19"/>
+      <c r="C205" s="19"/>
+      <c r="D205" s="20" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="20"/>
-      <c r="B206" s="20"/>
-      <c r="C206" s="20"/>
-      <c r="D206" s="21" t="s">
+      <c r="A206" s="19"/>
+      <c r="B206" s="19"/>
+      <c r="C206" s="19"/>
+      <c r="D206" s="20" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="20"/>
-      <c r="B207" s="20"/>
-      <c r="C207" s="20"/>
-      <c r="D207" s="21" t="s">
+      <c r="A207" s="19"/>
+      <c r="B207" s="19"/>
+      <c r="C207" s="19"/>
+      <c r="D207" s="20" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A208" s="20"/>
-      <c r="B208" s="20"/>
-      <c r="C208" s="20"/>
-      <c r="D208" s="21" t="s">
+      <c r="A208" s="19"/>
+      <c r="B208" s="19"/>
+      <c r="C208" s="19"/>
+      <c r="D208" s="20" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="20"/>
-      <c r="B209" s="20"/>
-      <c r="C209" s="20"/>
-      <c r="D209" s="21" t="s">
+      <c r="A209" s="19"/>
+      <c r="B209" s="19"/>
+      <c r="C209" s="19"/>
+      <c r="D209" s="20" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="20"/>
-      <c r="B210" s="20"/>
-      <c r="C210" s="20"/>
-      <c r="D210" s="21" t="s">
+      <c r="A210" s="19"/>
+      <c r="B210" s="19"/>
+      <c r="C210" s="19"/>
+      <c r="D210" s="20" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="20"/>
-      <c r="B211" s="20"/>
-      <c r="C211" s="20"/>
-      <c r="D211" s="21" t="s">
+      <c r="A211" s="19"/>
+      <c r="B211" s="19"/>
+      <c r="C211" s="19"/>
+      <c r="D211" s="20" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="20"/>
-      <c r="B212" s="20"/>
-      <c r="C212" s="20"/>
-      <c r="D212" s="21" t="s">
+      <c r="A212" s="19"/>
+      <c r="B212" s="19"/>
+      <c r="C212" s="19"/>
+      <c r="D212" s="20" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="20"/>
-      <c r="B213" s="20"/>
-      <c r="C213" s="20"/>
-      <c r="D213" s="21" t="s">
+      <c r="A213" s="19"/>
+      <c r="B213" s="19"/>
+      <c r="C213" s="19"/>
+      <c r="D213" s="20" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="20"/>
-      <c r="B214" s="20"/>
-      <c r="C214" s="20"/>
-      <c r="D214" s="21" t="s">
+      <c r="A214" s="19"/>
+      <c r="B214" s="19"/>
+      <c r="C214" s="19"/>
+      <c r="D214" s="20" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="20"/>
-      <c r="B215" s="20"/>
-      <c r="C215" s="20"/>
-      <c r="D215" s="21" t="s">
+      <c r="A215" s="19"/>
+      <c r="B215" s="19"/>
+      <c r="C215" s="19"/>
+      <c r="D215" s="20" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="20"/>
-      <c r="B216" s="20"/>
-      <c r="C216" s="20"/>
-      <c r="D216" s="21" t="s">
+      <c r="A216" s="19"/>
+      <c r="B216" s="19"/>
+      <c r="C216" s="19"/>
+      <c r="D216" s="20" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="20"/>
-      <c r="B217" s="20"/>
-      <c r="C217" s="20"/>
-      <c r="D217" s="21" t="s">
+      <c r="A217" s="19"/>
+      <c r="B217" s="19"/>
+      <c r="C217" s="19"/>
+      <c r="D217" s="20" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="20"/>
-      <c r="B218" s="20"/>
-      <c r="C218" s="20"/>
-      <c r="D218" s="21" t="s">
+      <c r="A218" s="19"/>
+      <c r="B218" s="19"/>
+      <c r="C218" s="19"/>
+      <c r="D218" s="20" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A219" s="20"/>
-      <c r="B219" s="20"/>
-      <c r="C219" s="20"/>
-      <c r="D219" s="21" t="s">
+      <c r="A219" s="19"/>
+      <c r="B219" s="19"/>
+      <c r="C219" s="19"/>
+      <c r="D219" s="20" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="20"/>
-      <c r="B220" s="20"/>
-      <c r="C220" s="20"/>
-      <c r="D220" s="21" t="s">
+      <c r="A220" s="19"/>
+      <c r="B220" s="19"/>
+      <c r="C220" s="19"/>
+      <c r="D220" s="20" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="20"/>
-      <c r="B221" s="20"/>
-      <c r="C221" s="20"/>
-      <c r="D221" s="21" t="s">
+      <c r="A221" s="19"/>
+      <c r="B221" s="19"/>
+      <c r="C221" s="19"/>
+      <c r="D221" s="20" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="20"/>
-      <c r="B222" s="20"/>
-      <c r="C222" s="20"/>
-      <c r="D222" s="21" t="s">
+      <c r="A222" s="19"/>
+      <c r="B222" s="19"/>
+      <c r="C222" s="19"/>
+      <c r="D222" s="20" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="20"/>
-      <c r="B223" s="20"/>
-      <c r="C223" s="20"/>
-      <c r="D223" s="21" t="s">
+      <c r="A223" s="19"/>
+      <c r="B223" s="19"/>
+      <c r="C223" s="19"/>
+      <c r="D223" s="20" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="20"/>
-      <c r="B224" s="20"/>
-      <c r="C224" s="20"/>
-      <c r="D224" s="21" t="s">
+      <c r="A224" s="19"/>
+      <c r="B224" s="19"/>
+      <c r="C224" s="19"/>
+      <c r="D224" s="20" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" s="20"/>
-      <c r="B225" s="20"/>
-      <c r="C225" s="20"/>
-      <c r="D225" s="21" t="s">
+      <c r="A225" s="19"/>
+      <c r="B225" s="19"/>
+      <c r="C225" s="19"/>
+      <c r="D225" s="20" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" s="20"/>
-      <c r="B226" s="20"/>
-      <c r="C226" s="20"/>
-      <c r="D226" s="21" t="s">
+      <c r="A226" s="19"/>
+      <c r="B226" s="19"/>
+      <c r="C226" s="19"/>
+      <c r="D226" s="20" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" s="20"/>
-      <c r="B227" s="20"/>
-      <c r="C227" s="20"/>
-      <c r="D227" s="21" t="s">
+      <c r="A227" s="19"/>
+      <c r="B227" s="19"/>
+      <c r="C227" s="19"/>
+      <c r="D227" s="20" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" s="20"/>
-      <c r="B228" s="20"/>
-      <c r="C228" s="20"/>
-      <c r="D228" s="21" t="s">
+      <c r="A228" s="19"/>
+      <c r="B228" s="19"/>
+      <c r="C228" s="19"/>
+      <c r="D228" s="20" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="20"/>
-      <c r="B229" s="20"/>
-      <c r="C229" s="20"/>
-      <c r="D229" s="21" t="s">
+      <c r="A229" s="19"/>
+      <c r="B229" s="19"/>
+      <c r="C229" s="19"/>
+      <c r="D229" s="20" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A230" s="20"/>
-      <c r="B230" s="20"/>
-      <c r="C230" s="20"/>
-      <c r="D230" s="21" t="s">
+      <c r="A230" s="19"/>
+      <c r="B230" s="19"/>
+      <c r="C230" s="19"/>
+      <c r="D230" s="20" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="20"/>
-      <c r="B231" s="20"/>
-      <c r="C231" s="20"/>
-      <c r="D231" s="21" t="s">
+      <c r="A231" s="19"/>
+      <c r="B231" s="19"/>
+      <c r="C231" s="19"/>
+      <c r="D231" s="20" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="20"/>
-      <c r="B232" s="20"/>
-      <c r="C232" s="20"/>
-      <c r="D232" s="21" t="s">
+      <c r="A232" s="19"/>
+      <c r="B232" s="19"/>
+      <c r="C232" s="19"/>
+      <c r="D232" s="20" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" s="20"/>
-      <c r="B233" s="20"/>
-      <c r="C233" s="20"/>
-      <c r="D233" s="21" t="s">
+      <c r="A233" s="19"/>
+      <c r="B233" s="19"/>
+      <c r="C233" s="19"/>
+      <c r="D233" s="20" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="20"/>
-      <c r="B234" s="20"/>
-      <c r="C234" s="20"/>
-      <c r="D234" s="21" t="s">
+      <c r="A234" s="19"/>
+      <c r="B234" s="19"/>
+      <c r="C234" s="19"/>
+      <c r="D234" s="20" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="20"/>
-      <c r="B235" s="20"/>
-      <c r="C235" s="20"/>
-      <c r="D235" s="21" t="s">
+      <c r="A235" s="19"/>
+      <c r="B235" s="19"/>
+      <c r="C235" s="19"/>
+      <c r="D235" s="20" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="20"/>
-      <c r="B236" s="20"/>
-      <c r="C236" s="20"/>
-      <c r="D236" s="21" t="s">
+      <c r="A236" s="19"/>
+      <c r="B236" s="19"/>
+      <c r="C236" s="19"/>
+      <c r="D236" s="20" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" s="20"/>
-      <c r="B237" s="20"/>
-      <c r="C237" s="20"/>
-      <c r="D237" s="21" t="s">
+      <c r="A237" s="19"/>
+      <c r="B237" s="19"/>
+      <c r="C237" s="19"/>
+      <c r="D237" s="20" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="20"/>
-      <c r="B238" s="20"/>
-      <c r="C238" s="20"/>
-      <c r="D238" s="21" t="s">
+      <c r="A238" s="19"/>
+      <c r="B238" s="19"/>
+      <c r="C238" s="19"/>
+      <c r="D238" s="20" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" s="20"/>
-      <c r="B239" s="20"/>
-      <c r="C239" s="20"/>
-      <c r="D239" s="21" t="s">
+      <c r="A239" s="19"/>
+      <c r="B239" s="19"/>
+      <c r="C239" s="19"/>
+      <c r="D239" s="20" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="20"/>
-      <c r="B240" s="20"/>
-      <c r="C240" s="20"/>
-      <c r="D240" s="21" t="s">
+      <c r="A240" s="19"/>
+      <c r="B240" s="19"/>
+      <c r="C240" s="19"/>
+      <c r="D240" s="20" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="20"/>
-      <c r="B241" s="20"/>
-      <c r="C241" s="20"/>
-      <c r="D241" s="21" t="s">
+      <c r="A241" s="19"/>
+      <c r="B241" s="19"/>
+      <c r="C241" s="19"/>
+      <c r="D241" s="20" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" s="20"/>
-      <c r="B242" s="20"/>
-      <c r="C242" s="20"/>
-      <c r="D242" s="21" t="s">
+      <c r="A242" s="19"/>
+      <c r="B242" s="19"/>
+      <c r="C242" s="19"/>
+      <c r="D242" s="20" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A243" s="20"/>
-      <c r="B243" s="20"/>
-      <c r="C243" s="20"/>
-      <c r="D243" s="21" t="s">
+      <c r="A243" s="19"/>
+      <c r="B243" s="19"/>
+      <c r="C243" s="19"/>
+      <c r="D243" s="20" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" s="20"/>
-      <c r="B244" s="20"/>
-      <c r="C244" s="20"/>
-      <c r="D244" s="21" t="s">
+      <c r="A244" s="19"/>
+      <c r="B244" s="19"/>
+      <c r="C244" s="19"/>
+      <c r="D244" s="20" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" s="20"/>
-      <c r="B245" s="20"/>
-      <c r="C245" s="20"/>
-      <c r="D245" s="21" t="s">
+      <c r="A245" s="19"/>
+      <c r="B245" s="19"/>
+      <c r="C245" s="19"/>
+      <c r="D245" s="20" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" s="20"/>
-      <c r="B246" s="20"/>
-      <c r="C246" s="20"/>
-      <c r="D246" s="21" t="s">
+      <c r="A246" s="19"/>
+      <c r="B246" s="19"/>
+      <c r="C246" s="19"/>
+      <c r="D246" s="20" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" s="20"/>
-      <c r="B247" s="20"/>
-      <c r="C247" s="20"/>
-      <c r="D247" s="21" t="s">
+      <c r="A247" s="19"/>
+      <c r="B247" s="19"/>
+      <c r="C247" s="19"/>
+      <c r="D247" s="20" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" s="20"/>
-      <c r="B248" s="20"/>
-      <c r="C248" s="20"/>
-      <c r="D248" s="21" t="s">
+      <c r="A248" s="19"/>
+      <c r="B248" s="19"/>
+      <c r="C248" s="19"/>
+      <c r="D248" s="20" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" s="20"/>
-      <c r="B249" s="20"/>
-      <c r="C249" s="20"/>
-      <c r="D249" s="21" t="s">
+      <c r="A249" s="19"/>
+      <c r="B249" s="19"/>
+      <c r="C249" s="19"/>
+      <c r="D249" s="20" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250" s="20"/>
-      <c r="B250" s="20"/>
-      <c r="C250" s="20"/>
-      <c r="D250" s="21" t="s">
+      <c r="A250" s="19"/>
+      <c r="B250" s="19"/>
+      <c r="C250" s="19"/>
+      <c r="D250" s="20" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" s="20"/>
-      <c r="B251" s="20"/>
-      <c r="C251" s="20"/>
-      <c r="D251" s="21" t="s">
+      <c r="A251" s="19"/>
+      <c r="B251" s="19"/>
+      <c r="C251" s="19"/>
+      <c r="D251" s="20" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" s="20"/>
-      <c r="B252" s="20"/>
-      <c r="C252" s="20"/>
-      <c r="D252" s="21" t="s">
+      <c r="A252" s="19"/>
+      <c r="B252" s="19"/>
+      <c r="C252" s="19"/>
+      <c r="D252" s="20" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A253" s="20"/>
-      <c r="B253" s="20"/>
-      <c r="C253" s="20"/>
-      <c r="D253" s="21" t="s">
+      <c r="A253" s="19"/>
+      <c r="B253" s="19"/>
+      <c r="C253" s="19"/>
+      <c r="D253" s="20" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" s="20"/>
-      <c r="B254" s="20"/>
-      <c r="C254" s="20"/>
-      <c r="D254" s="21" t="s">
+      <c r="A254" s="19"/>
+      <c r="B254" s="19"/>
+      <c r="C254" s="19"/>
+      <c r="D254" s="20" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" s="20"/>
-      <c r="B255" s="20"/>
-      <c r="C255" s="20"/>
-      <c r="D255" s="21" t="s">
+      <c r="A255" s="19"/>
+      <c r="B255" s="19"/>
+      <c r="C255" s="19"/>
+      <c r="D255" s="20" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A256" s="20"/>
-      <c r="B256" s="20"/>
-      <c r="C256" s="20"/>
-      <c r="D256" s="21" t="s">
+      <c r="A256" s="19"/>
+      <c r="B256" s="19"/>
+      <c r="C256" s="19"/>
+      <c r="D256" s="20" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" s="20"/>
-      <c r="B257" s="20"/>
-      <c r="C257" s="20"/>
-      <c r="D257" s="21" t="s">
+      <c r="A257" s="19"/>
+      <c r="B257" s="19"/>
+      <c r="C257" s="19"/>
+      <c r="D257" s="20" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" s="20"/>
-      <c r="B258" s="20"/>
-      <c r="C258" s="20"/>
-      <c r="D258" s="21" t="s">
+      <c r="A258" s="19"/>
+      <c r="B258" s="19"/>
+      <c r="C258" s="19"/>
+      <c r="D258" s="20" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" s="20"/>
-      <c r="B259" s="20"/>
-      <c r="C259" s="20"/>
-      <c r="D259" s="21" t="s">
+      <c r="A259" s="19"/>
+      <c r="B259" s="19"/>
+      <c r="C259" s="19"/>
+      <c r="D259" s="20" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" s="20"/>
-      <c r="B260" s="20"/>
-      <c r="C260" s="20"/>
-      <c r="D260" s="21" t="s">
+      <c r="A260" s="19"/>
+      <c r="B260" s="19"/>
+      <c r="C260" s="19"/>
+      <c r="D260" s="20" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A261" s="20"/>
-      <c r="B261" s="20"/>
-      <c r="C261" s="20"/>
-      <c r="D261" s="21" t="s">
+      <c r="A261" s="19"/>
+      <c r="B261" s="19"/>
+      <c r="C261" s="19"/>
+      <c r="D261" s="20" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262" s="20"/>
-      <c r="B262" s="20"/>
-      <c r="C262" s="20"/>
-      <c r="D262" s="21" t="s">
+      <c r="A262" s="19"/>
+      <c r="B262" s="19"/>
+      <c r="C262" s="19"/>
+      <c r="D262" s="20" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263" s="20"/>
-      <c r="B263" s="20"/>
-      <c r="C263" s="20"/>
-      <c r="D263" s="21" t="s">
+      <c r="A263" s="19"/>
+      <c r="B263" s="19"/>
+      <c r="C263" s="19"/>
+      <c r="D263" s="20" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" s="20"/>
-      <c r="B264" s="20"/>
-      <c r="C264" s="20"/>
-      <c r="D264" s="21" t="s">
+      <c r="A264" s="19"/>
+      <c r="B264" s="19"/>
+      <c r="C264" s="19"/>
+      <c r="D264" s="20" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" s="20"/>
-      <c r="B265" s="20"/>
-      <c r="C265" s="20"/>
-      <c r="D265" s="21" t="s">
+      <c r="A265" s="19"/>
+      <c r="B265" s="19"/>
+      <c r="C265" s="19"/>
+      <c r="D265" s="20" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A266" s="20"/>
-      <c r="B266" s="20"/>
-      <c r="C266" s="20"/>
-      <c r="D266" s="21" t="s">
+      <c r="A266" s="19"/>
+      <c r="B266" s="19"/>
+      <c r="C266" s="19"/>
+      <c r="D266" s="20" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" s="20"/>
-      <c r="B267" s="20"/>
-      <c r="C267" s="20"/>
-      <c r="D267" s="21" t="s">
+      <c r="A267" s="19"/>
+      <c r="B267" s="19"/>
+      <c r="C267" s="19"/>
+      <c r="D267" s="20" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" s="20"/>
-      <c r="B268" s="20"/>
-      <c r="C268" s="20"/>
-      <c r="D268" s="21" t="s">
+      <c r="A268" s="19"/>
+      <c r="B268" s="19"/>
+      <c r="C268" s="19"/>
+      <c r="D268" s="20" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A269" s="20"/>
-      <c r="B269" s="20"/>
-      <c r="C269" s="20"/>
-      <c r="D269" s="21" t="s">
+      <c r="A269" s="19"/>
+      <c r="B269" s="19"/>
+      <c r="C269" s="19"/>
+      <c r="D269" s="20" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A270" s="20"/>
-      <c r="B270" s="20"/>
-      <c r="C270" s="20"/>
-      <c r="D270" s="21" t="s">
+      <c r="A270" s="19"/>
+      <c r="B270" s="19"/>
+      <c r="C270" s="19"/>
+      <c r="D270" s="20" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271" s="20"/>
-      <c r="B271" s="20"/>
-      <c r="C271" s="20"/>
-      <c r="D271" s="21" t="s">
+      <c r="A271" s="19"/>
+      <c r="B271" s="19"/>
+      <c r="C271" s="19"/>
+      <c r="D271" s="20" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272" s="20"/>
-      <c r="B272" s="20"/>
-      <c r="C272" s="20"/>
-      <c r="D272" s="21" t="s">
+      <c r="A272" s="19"/>
+      <c r="B272" s="19"/>
+      <c r="C272" s="19"/>
+      <c r="D272" s="20" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A273" s="20"/>
-      <c r="B273" s="20"/>
-      <c r="C273" s="20"/>
-      <c r="D273" s="21" t="s">
+      <c r="A273" s="19"/>
+      <c r="B273" s="19"/>
+      <c r="C273" s="19"/>
+      <c r="D273" s="20" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A274" s="20"/>
-      <c r="B274" s="20"/>
-      <c r="C274" s="20"/>
-      <c r="D274" s="21" t="s">
+      <c r="A274" s="19"/>
+      <c r="B274" s="19"/>
+      <c r="C274" s="19"/>
+      <c r="D274" s="20" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A275" s="20"/>
-      <c r="B275" s="20"/>
-      <c r="C275" s="20"/>
-      <c r="D275" s="21" t="s">
+      <c r="A275" s="19"/>
+      <c r="B275" s="19"/>
+      <c r="C275" s="19"/>
+      <c r="D275" s="20" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A276" s="20"/>
-      <c r="B276" s="20"/>
-      <c r="C276" s="20"/>
-      <c r="D276" s="21" t="s">
+      <c r="A276" s="19"/>
+      <c r="B276" s="19"/>
+      <c r="C276" s="19"/>
+      <c r="D276" s="20" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A277" s="20"/>
-      <c r="B277" s="20"/>
-      <c r="C277" s="20"/>
-      <c r="D277" s="21" t="s">
+      <c r="A277" s="19"/>
+      <c r="B277" s="19"/>
+      <c r="C277" s="19"/>
+      <c r="D277" s="20" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A278" s="20"/>
-      <c r="B278" s="20"/>
-      <c r="C278" s="20"/>
-      <c r="D278" s="21" t="s">
+      <c r="A278" s="19"/>
+      <c r="B278" s="19"/>
+      <c r="C278" s="19"/>
+      <c r="D278" s="20" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A279" s="20"/>
-      <c r="B279" s="20"/>
-      <c r="C279" s="20"/>
-      <c r="D279" s="21" t="s">
+      <c r="A279" s="19"/>
+      <c r="B279" s="19"/>
+      <c r="C279" s="19"/>
+      <c r="D279" s="20" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A280" s="20"/>
-      <c r="B280" s="20"/>
-      <c r="C280" s="20"/>
-      <c r="D280" s="21" t="s">
+      <c r="A280" s="19"/>
+      <c r="B280" s="19"/>
+      <c r="C280" s="19"/>
+      <c r="D280" s="20" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A281" s="20"/>
-      <c r="B281" s="20"/>
-      <c r="C281" s="20"/>
-      <c r="D281" s="21" t="s">
+      <c r="A281" s="19"/>
+      <c r="B281" s="19"/>
+      <c r="C281" s="19"/>
+      <c r="D281" s="20" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A282" s="20"/>
-      <c r="B282" s="20"/>
-      <c r="C282" s="20"/>
-      <c r="D282" s="21" t="s">
+      <c r="A282" s="19"/>
+      <c r="B282" s="19"/>
+      <c r="C282" s="19"/>
+      <c r="D282" s="20" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A283" s="20"/>
-      <c r="B283" s="20"/>
-      <c r="C283" s="20"/>
-      <c r="D283" s="21" t="s">
+      <c r="A283" s="19"/>
+      <c r="B283" s="19"/>
+      <c r="C283" s="19"/>
+      <c r="D283" s="20" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A284" s="20"/>
-      <c r="B284" s="20"/>
-      <c r="C284" s="20"/>
-      <c r="D284" s="21" t="s">
+      <c r="A284" s="19"/>
+      <c r="B284" s="19"/>
+      <c r="C284" s="19"/>
+      <c r="D284" s="20" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A285" s="20"/>
-      <c r="B285" s="20"/>
-      <c r="C285" s="20"/>
-      <c r="D285" s="21" t="s">
+      <c r="A285" s="19"/>
+      <c r="B285" s="19"/>
+      <c r="C285" s="19"/>
+      <c r="D285" s="20" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A286" s="20"/>
-      <c r="B286" s="20"/>
-      <c r="C286" s="20"/>
-      <c r="D286" s="21" t="s">
+      <c r="A286" s="19"/>
+      <c r="B286" s="19"/>
+      <c r="C286" s="19"/>
+      <c r="D286" s="20" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A287" s="20"/>
-      <c r="B287" s="20"/>
-      <c r="C287" s="20"/>
-      <c r="D287" s="21" t="s">
+      <c r="A287" s="19"/>
+      <c r="B287" s="19"/>
+      <c r="C287" s="19"/>
+      <c r="D287" s="20" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A288" s="20"/>
-      <c r="B288" s="20"/>
-      <c r="C288" s="20"/>
-      <c r="D288" s="21" t="s">
+      <c r="A288" s="19"/>
+      <c r="B288" s="19"/>
+      <c r="C288" s="19"/>
+      <c r="D288" s="20" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A289" s="20"/>
-      <c r="B289" s="20"/>
-      <c r="C289" s="20"/>
-      <c r="D289" s="21" t="s">
+      <c r="A289" s="19"/>
+      <c r="B289" s="19"/>
+      <c r="C289" s="19"/>
+      <c r="D289" s="20" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A290" s="20"/>
-      <c r="B290" s="20"/>
-      <c r="C290" s="20"/>
-      <c r="D290" s="21" t="s">
+      <c r="A290" s="19"/>
+      <c r="B290" s="19"/>
+      <c r="C290" s="19"/>
+      <c r="D290" s="20" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A291" s="20"/>
-      <c r="B291" s="20"/>
-      <c r="C291" s="20"/>
-      <c r="D291" s="21" t="s">
+      <c r="A291" s="19"/>
+      <c r="B291" s="19"/>
+      <c r="C291" s="19"/>
+      <c r="D291" s="20" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A292" s="20"/>
-      <c r="B292" s="20"/>
-      <c r="C292" s="20"/>
-      <c r="D292" s="21" t="s">
+      <c r="A292" s="19"/>
+      <c r="B292" s="19"/>
+      <c r="C292" s="19"/>
+      <c r="D292" s="20" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A293" s="20"/>
-      <c r="B293" s="20"/>
-      <c r="C293" s="20"/>
-      <c r="D293" s="21" t="s">
+      <c r="A293" s="19"/>
+      <c r="B293" s="19"/>
+      <c r="C293" s="19"/>
+      <c r="D293" s="20" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A294" s="20"/>
-      <c r="B294" s="20"/>
-      <c r="C294" s="20"/>
-      <c r="D294" s="21" t="s">
+      <c r="A294" s="19"/>
+      <c r="B294" s="19"/>
+      <c r="C294" s="19"/>
+      <c r="D294" s="20" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A295" s="20"/>
-      <c r="B295" s="20"/>
-      <c r="C295" s="20"/>
-      <c r="D295" s="21" t="s">
+      <c r="A295" s="19"/>
+      <c r="B295" s="19"/>
+      <c r="C295" s="19"/>
+      <c r="D295" s="20" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A296" s="20"/>
-      <c r="B296" s="20"/>
-      <c r="C296" s="20"/>
-      <c r="D296" s="21" t="s">
+      <c r="A296" s="19"/>
+      <c r="B296" s="19"/>
+      <c r="C296" s="19"/>
+      <c r="D296" s="20" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A297" s="20"/>
-      <c r="B297" s="20"/>
-      <c r="C297" s="20"/>
-      <c r="D297" s="21" t="s">
+      <c r="A297" s="19"/>
+      <c r="B297" s="19"/>
+      <c r="C297" s="19"/>
+      <c r="D297" s="20" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A298" s="20"/>
-      <c r="B298" s="20"/>
-      <c r="C298" s="20"/>
-      <c r="D298" s="21" t="s">
+      <c r="A298" s="19"/>
+      <c r="B298" s="19"/>
+      <c r="C298" s="19"/>
+      <c r="D298" s="20" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A299" s="20"/>
-      <c r="B299" s="20"/>
-      <c r="C299" s="20"/>
-      <c r="D299" s="21" t="s">
+      <c r="A299" s="19"/>
+      <c r="B299" s="19"/>
+      <c r="C299" s="19"/>
+      <c r="D299" s="20" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A300" s="20"/>
-      <c r="B300" s="20"/>
-      <c r="C300" s="20"/>
-      <c r="D300" s="21" t="s">
+      <c r="A300" s="19"/>
+      <c r="B300" s="19"/>
+      <c r="C300" s="19"/>
+      <c r="D300" s="20" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A301" s="20"/>
-      <c r="B301" s="20"/>
-      <c r="C301" s="20"/>
-      <c r="D301" s="21" t="s">
+      <c r="A301" s="19"/>
+      <c r="B301" s="19"/>
+      <c r="C301" s="19"/>
+      <c r="D301" s="20" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A302" s="20"/>
-      <c r="B302" s="20"/>
-      <c r="C302" s="20"/>
-      <c r="D302" s="21" t="s">
+      <c r="A302" s="19"/>
+      <c r="B302" s="19"/>
+      <c r="C302" s="19"/>
+      <c r="D302" s="20" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A303" s="20"/>
-      <c r="B303" s="20"/>
-      <c r="C303" s="20"/>
-      <c r="D303" s="21" t="s">
+      <c r="A303" s="19"/>
+      <c r="B303" s="19"/>
+      <c r="C303" s="19"/>
+      <c r="D303" s="20" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A304" s="20"/>
-      <c r="B304" s="20"/>
-      <c r="C304" s="20"/>
-      <c r="D304" s="21" t="s">
+      <c r="A304" s="19"/>
+      <c r="B304" s="19"/>
+      <c r="C304" s="19"/>
+      <c r="D304" s="20" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A305" s="20"/>
-      <c r="B305" s="20"/>
-      <c r="C305" s="20"/>
-      <c r="D305" s="21" t="s">
+      <c r="A305" s="19"/>
+      <c r="B305" s="19"/>
+      <c r="C305" s="19"/>
+      <c r="D305" s="20" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A306" s="20"/>
-      <c r="B306" s="20"/>
-      <c r="C306" s="20"/>
-      <c r="D306" s="21" t="s">
+      <c r="A306" s="19"/>
+      <c r="B306" s="19"/>
+      <c r="C306" s="19"/>
+      <c r="D306" s="20" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A307" s="20"/>
-      <c r="B307" s="20"/>
-      <c r="C307" s="20"/>
-      <c r="D307" s="21" t="s">
+      <c r="A307" s="19"/>
+      <c r="B307" s="19"/>
+      <c r="C307" s="19"/>
+      <c r="D307" s="20" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A308" s="20"/>
-      <c r="B308" s="20"/>
-      <c r="C308" s="20"/>
-      <c r="D308" s="21" t="s">
+      <c r="A308" s="19"/>
+      <c r="B308" s="19"/>
+      <c r="C308" s="19"/>
+      <c r="D308" s="20" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A309" s="20"/>
-      <c r="B309" s="20"/>
-      <c r="C309" s="20"/>
-      <c r="D309" s="21" t="s">
+      <c r="A309" s="19"/>
+      <c r="B309" s="19"/>
+      <c r="C309" s="19"/>
+      <c r="D309" s="20" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A310" s="20"/>
-      <c r="B310" s="20"/>
-      <c r="C310" s="20"/>
-      <c r="D310" s="21" t="s">
+      <c r="A310" s="19"/>
+      <c r="B310" s="19"/>
+      <c r="C310" s="19"/>
+      <c r="D310" s="20" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A311" s="20"/>
-      <c r="B311" s="20"/>
-      <c r="C311" s="20"/>
-      <c r="D311" s="21" t="s">
+      <c r="A311" s="19"/>
+      <c r="B311" s="19"/>
+      <c r="C311" s="19"/>
+      <c r="D311" s="20" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A312" s="20"/>
-      <c r="B312" s="20"/>
-      <c r="C312" s="20"/>
-      <c r="D312" s="21" t="s">
+      <c r="A312" s="19"/>
+      <c r="B312" s="19"/>
+      <c r="C312" s="19"/>
+      <c r="D312" s="20" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A313" s="20"/>
-      <c r="B313" s="20"/>
-      <c r="C313" s="20"/>
-      <c r="D313" s="21" t="s">
+      <c r="A313" s="19"/>
+      <c r="B313" s="19"/>
+      <c r="C313" s="19"/>
+      <c r="D313" s="20" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A314" s="20"/>
-      <c r="B314" s="20"/>
-      <c r="C314" s="20"/>
-      <c r="D314" s="21" t="s">
+      <c r="A314" s="19"/>
+      <c r="B314" s="19"/>
+      <c r="C314" s="19"/>
+      <c r="D314" s="20" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A315" s="20"/>
-      <c r="B315" s="20"/>
-      <c r="C315" s="20"/>
-      <c r="D315" s="21" t="s">
+      <c r="A315" s="19"/>
+      <c r="B315" s="19"/>
+      <c r="C315" s="19"/>
+      <c r="D315" s="20" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A316" s="20"/>
-      <c r="B316" s="20"/>
-      <c r="C316" s="20"/>
-      <c r="D316" s="21" t="s">
+      <c r="A316" s="19"/>
+      <c r="B316" s="19"/>
+      <c r="C316" s="19"/>
+      <c r="D316" s="20" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A317" s="20"/>
-      <c r="B317" s="20"/>
-      <c r="C317" s="20"/>
-      <c r="D317" s="21" t="s">
+      <c r="A317" s="19"/>
+      <c r="B317" s="19"/>
+      <c r="C317" s="19"/>
+      <c r="D317" s="20" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A318" s="20"/>
-      <c r="B318" s="20"/>
-      <c r="C318" s="20"/>
-      <c r="D318" s="21" t="s">
+      <c r="A318" s="19"/>
+      <c r="B318" s="19"/>
+      <c r="C318" s="19"/>
+      <c r="D318" s="20" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A319" s="20"/>
-      <c r="B319" s="20"/>
-      <c r="C319" s="20"/>
-      <c r="D319" s="21" t="s">
+      <c r="A319" s="19"/>
+      <c r="B319" s="19"/>
+      <c r="C319" s="19"/>
+      <c r="D319" s="20" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A320" s="20"/>
-      <c r="B320" s="20"/>
-      <c r="C320" s="20"/>
-      <c r="D320" s="21" t="s">
+      <c r="A320" s="19"/>
+      <c r="B320" s="19"/>
+      <c r="C320" s="19"/>
+      <c r="D320" s="20" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A321" s="20"/>
-      <c r="B321" s="20"/>
-      <c r="C321" s="20"/>
-      <c r="D321" s="21" t="s">
+      <c r="A321" s="19"/>
+      <c r="B321" s="19"/>
+      <c r="C321" s="19"/>
+      <c r="D321" s="20" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A322" s="20"/>
-      <c r="B322" s="20"/>
-      <c r="C322" s="20"/>
-      <c r="D322" s="21" t="s">
+      <c r="A322" s="19"/>
+      <c r="B322" s="19"/>
+      <c r="C322" s="19"/>
+      <c r="D322" s="20" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A323" s="20"/>
-      <c r="B323" s="20"/>
-      <c r="C323" s="20"/>
-      <c r="D323" s="21" t="s">
+      <c r="A323" s="19"/>
+      <c r="B323" s="19"/>
+      <c r="C323" s="19"/>
+      <c r="D323" s="20" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A324" s="20"/>
-      <c r="B324" s="20"/>
-      <c r="C324" s="20"/>
-      <c r="D324" s="21" t="s">
+      <c r="A324" s="19"/>
+      <c r="B324" s="19"/>
+      <c r="C324" s="19"/>
+      <c r="D324" s="20" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A325" s="20"/>
-      <c r="B325" s="20"/>
-      <c r="C325" s="20"/>
-      <c r="D325" s="21" t="s">
+      <c r="A325" s="19"/>
+      <c r="B325" s="19"/>
+      <c r="C325" s="19"/>
+      <c r="D325" s="20" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A326" s="20"/>
-      <c r="B326" s="20"/>
-      <c r="C326" s="20"/>
-      <c r="D326" s="21" t="s">
+      <c r="A326" s="19"/>
+      <c r="B326" s="19"/>
+      <c r="C326" s="19"/>
+      <c r="D326" s="20" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A327" s="20"/>
-      <c r="B327" s="20"/>
-      <c r="C327" s="20"/>
-      <c r="D327" s="21" t="s">
+      <c r="A327" s="19"/>
+      <c r="B327" s="19"/>
+      <c r="C327" s="19"/>
+      <c r="D327" s="20" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A328" s="20"/>
-      <c r="B328" s="20"/>
-      <c r="C328" s="20"/>
-      <c r="D328" s="21" t="s">
+      <c r="A328" s="19"/>
+      <c r="B328" s="19"/>
+      <c r="C328" s="19"/>
+      <c r="D328" s="20" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A329" s="20"/>
-      <c r="B329" s="20"/>
-      <c r="C329" s="20"/>
-      <c r="D329" s="21" t="s">
+      <c r="A329" s="19"/>
+      <c r="B329" s="19"/>
+      <c r="C329" s="19"/>
+      <c r="D329" s="20" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A330" s="20"/>
-      <c r="B330" s="20"/>
-      <c r="C330" s="20"/>
-      <c r="D330" s="21" t="s">
+      <c r="A330" s="19"/>
+      <c r="B330" s="19"/>
+      <c r="C330" s="19"/>
+      <c r="D330" s="20" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A331" s="20"/>
-      <c r="B331" s="20"/>
-      <c r="C331" s="20"/>
-      <c r="D331" s="21" t="s">
+      <c r="A331" s="19"/>
+      <c r="B331" s="19"/>
+      <c r="C331" s="19"/>
+      <c r="D331" s="20" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A332" s="20"/>
-      <c r="B332" s="20"/>
-      <c r="C332" s="20"/>
-      <c r="D332" s="21" t="s">
+      <c r="A332" s="19"/>
+      <c r="B332" s="19"/>
+      <c r="C332" s="19"/>
+      <c r="D332" s="20" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A333" s="20"/>
-      <c r="B333" s="20"/>
-      <c r="C333" s="20"/>
-      <c r="D333" s="21" t="s">
+      <c r="A333" s="19"/>
+      <c r="B333" s="19"/>
+      <c r="C333" s="19"/>
+      <c r="D333" s="20" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A334" s="20"/>
-      <c r="B334" s="20"/>
-      <c r="C334" s="20"/>
-      <c r="D334" s="21" t="s">
+      <c r="A334" s="19"/>
+      <c r="B334" s="19"/>
+      <c r="C334" s="19"/>
+      <c r="D334" s="20" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A335" s="20"/>
-      <c r="B335" s="20"/>
-      <c r="C335" s="20"/>
-      <c r="D335" s="21" t="s">
+      <c r="A335" s="19"/>
+      <c r="B335" s="19"/>
+      <c r="C335" s="19"/>
+      <c r="D335" s="20" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A336" s="20"/>
-      <c r="B336" s="20"/>
-      <c r="C336" s="20"/>
-      <c r="D336" s="21" t="s">
+      <c r="A336" s="19"/>
+      <c r="B336" s="19"/>
+      <c r="C336" s="19"/>
+      <c r="D336" s="20" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A337" s="20"/>
-      <c r="B337" s="20"/>
-      <c r="C337" s="20"/>
-      <c r="D337" s="21" t="s">
+      <c r="A337" s="19"/>
+      <c r="B337" s="19"/>
+      <c r="C337" s="19"/>
+      <c r="D337" s="20" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A338" s="20"/>
-      <c r="B338" s="20"/>
-      <c r="C338" s="20"/>
-      <c r="D338" s="21" t="s">
+      <c r="A338" s="19"/>
+      <c r="B338" s="19"/>
+      <c r="C338" s="19"/>
+      <c r="D338" s="20" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A339" s="20"/>
-      <c r="B339" s="20"/>
-      <c r="C339" s="20"/>
-      <c r="D339" s="21" t="s">
+      <c r="A339" s="19"/>
+      <c r="B339" s="19"/>
+      <c r="C339" s="19"/>
+      <c r="D339" s="20" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A340" s="20"/>
-      <c r="B340" s="20"/>
-      <c r="C340" s="20"/>
-      <c r="D340" s="21" t="s">
+      <c r="A340" s="19"/>
+      <c r="B340" s="19"/>
+      <c r="C340" s="19"/>
+      <c r="D340" s="20" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A341" s="20"/>
-      <c r="B341" s="20"/>
-      <c r="C341" s="20"/>
-      <c r="D341" s="21" t="s">
+      <c r="A341" s="19"/>
+      <c r="B341" s="19"/>
+      <c r="C341" s="19"/>
+      <c r="D341" s="20" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A342" s="20"/>
-      <c r="B342" s="20"/>
-      <c r="C342" s="20"/>
-      <c r="D342" s="21" t="s">
+      <c r="A342" s="19"/>
+      <c r="B342" s="19"/>
+      <c r="C342" s="19"/>
+      <c r="D342" s="20" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A343" s="20"/>
-      <c r="B343" s="20"/>
-      <c r="C343" s="20"/>
-      <c r="D343" s="21" t="s">
+      <c r="A343" s="19"/>
+      <c r="B343" s="19"/>
+      <c r="C343" s="19"/>
+      <c r="D343" s="20" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A344" s="20"/>
-      <c r="B344" s="20"/>
-      <c r="C344" s="20"/>
-      <c r="D344" s="21" t="s">
+      <c r="A344" s="19"/>
+      <c r="B344" s="19"/>
+      <c r="C344" s="19"/>
+      <c r="D344" s="20" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A345" s="20"/>
-      <c r="B345" s="20"/>
-      <c r="C345" s="20"/>
-      <c r="D345" s="21" t="s">
+      <c r="A345" s="19"/>
+      <c r="B345" s="19"/>
+      <c r="C345" s="19"/>
+      <c r="D345" s="20" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A346" s="20"/>
-      <c r="B346" s="20"/>
-      <c r="C346" s="20"/>
-      <c r="D346" s="21" t="s">
+      <c r="A346" s="19"/>
+      <c r="B346" s="19"/>
+      <c r="C346" s="19"/>
+      <c r="D346" s="20" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A347" s="20"/>
-      <c r="B347" s="20"/>
-      <c r="C347" s="20"/>
-      <c r="D347" s="21" t="s">
+      <c r="A347" s="19"/>
+      <c r="B347" s="19"/>
+      <c r="C347" s="19"/>
+      <c r="D347" s="20" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A348" s="20"/>
-      <c r="B348" s="20"/>
-      <c r="C348" s="20"/>
-      <c r="D348" s="21" t="s">
+      <c r="A348" s="19"/>
+      <c r="B348" s="19"/>
+      <c r="C348" s="19"/>
+      <c r="D348" s="20" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A349" s="20"/>
-      <c r="B349" s="20"/>
-      <c r="C349" s="20"/>
-      <c r="D349" s="21" t="s">
+      <c r="A349" s="19"/>
+      <c r="B349" s="19"/>
+      <c r="C349" s="19"/>
+      <c r="D349" s="20" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A350" s="20"/>
-      <c r="B350" s="20"/>
-      <c r="C350" s="20"/>
-      <c r="D350" s="21" t="s">
+      <c r="A350" s="19"/>
+      <c r="B350" s="19"/>
+      <c r="C350" s="19"/>
+      <c r="D350" s="20" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A351" s="20"/>
-      <c r="B351" s="20"/>
-      <c r="C351" s="20"/>
-      <c r="D351" s="21" t="s">
+      <c r="A351" s="19"/>
+      <c r="B351" s="19"/>
+      <c r="C351" s="19"/>
+      <c r="D351" s="20" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A352" s="20"/>
-      <c r="B352" s="20"/>
-      <c r="C352" s="20"/>
-      <c r="D352" s="21" t="s">
+      <c r="A352" s="19"/>
+      <c r="B352" s="19"/>
+      <c r="C352" s="19"/>
+      <c r="D352" s="20" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A353" s="20"/>
-      <c r="B353" s="20"/>
-      <c r="C353" s="20"/>
-      <c r="D353" s="21" t="s">
+      <c r="A353" s="19"/>
+      <c r="B353" s="19"/>
+      <c r="C353" s="19"/>
+      <c r="D353" s="20" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A354" s="20"/>
-      <c r="B354" s="20"/>
-      <c r="C354" s="20"/>
-      <c r="D354" s="21" t="s">
+      <c r="A354" s="19"/>
+      <c r="B354" s="19"/>
+      <c r="C354" s="19"/>
+      <c r="D354" s="20" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A355" s="20"/>
-      <c r="B355" s="20"/>
-      <c r="C355" s="20"/>
-      <c r="D355" s="21" t="s">
+      <c r="A355" s="19"/>
+      <c r="B355" s="19"/>
+      <c r="C355" s="19"/>
+      <c r="D355" s="20" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A356" s="20"/>
-      <c r="B356" s="20"/>
-      <c r="C356" s="20"/>
-      <c r="D356" s="21" t="s">
+      <c r="A356" s="19"/>
+      <c r="B356" s="19"/>
+      <c r="C356" s="19"/>
+      <c r="D356" s="20" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A357" s="20"/>
-      <c r="B357" s="20"/>
-      <c r="C357" s="20"/>
-      <c r="D357" s="21" t="s">
+      <c r="A357" s="19"/>
+      <c r="B357" s="19"/>
+      <c r="C357" s="19"/>
+      <c r="D357" s="20" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A358" s="20"/>
-      <c r="B358" s="20"/>
-      <c r="C358" s="20"/>
-      <c r="D358" s="21" t="s">
+      <c r="A358" s="19"/>
+      <c r="B358" s="19"/>
+      <c r="C358" s="19"/>
+      <c r="D358" s="20" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A359" s="20"/>
-      <c r="B359" s="20"/>
-      <c r="C359" s="20"/>
-      <c r="D359" s="21" t="s">
+      <c r="A359" s="19"/>
+      <c r="B359" s="19"/>
+      <c r="C359" s="19"/>
+      <c r="D359" s="20" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A360" s="20"/>
-      <c r="B360" s="20"/>
-      <c r="C360" s="20"/>
-      <c r="D360" s="21" t="s">
+      <c r="A360" s="19"/>
+      <c r="B360" s="19"/>
+      <c r="C360" s="19"/>
+      <c r="D360" s="20" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A361" s="20"/>
-      <c r="B361" s="20"/>
-      <c r="C361" s="20"/>
-      <c r="D361" s="21" t="s">
+      <c r="A361" s="19"/>
+      <c r="B361" s="19"/>
+      <c r="C361" s="19"/>
+      <c r="D361" s="20" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A362" s="20"/>
-      <c r="B362" s="20"/>
-      <c r="C362" s="20"/>
-      <c r="D362" s="21" t="s">
+      <c r="A362" s="19"/>
+      <c r="B362" s="19"/>
+      <c r="C362" s="19"/>
+      <c r="D362" s="20" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A363" s="20"/>
-      <c r="B363" s="20"/>
-      <c r="C363" s="20"/>
-      <c r="D363" s="21" t="s">
+      <c r="A363" s="19"/>
+      <c r="B363" s="19"/>
+      <c r="C363" s="19"/>
+      <c r="D363" s="20" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A364" s="20"/>
-      <c r="B364" s="20"/>
-      <c r="C364" s="20"/>
-      <c r="D364" s="21" t="s">
+      <c r="A364" s="19"/>
+      <c r="B364" s="19"/>
+      <c r="C364" s="19"/>
+      <c r="D364" s="20" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A365" s="20"/>
-      <c r="B365" s="20"/>
-      <c r="C365" s="20"/>
-      <c r="D365" s="21" t="s">
+      <c r="A365" s="19"/>
+      <c r="B365" s="19"/>
+      <c r="C365" s="19"/>
+      <c r="D365" s="20" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A366" s="20"/>
-      <c r="B366" s="20"/>
-      <c r="C366" s="20"/>
-      <c r="D366" s="21" t="s">
+      <c r="A366" s="19"/>
+      <c r="B366" s="19"/>
+      <c r="C366" s="19"/>
+      <c r="D366" s="20" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A367" s="20"/>
-      <c r="B367" s="20"/>
-      <c r="C367" s="20"/>
-      <c r="D367" s="21" t="s">
+      <c r="A367" s="19"/>
+      <c r="B367" s="19"/>
+      <c r="C367" s="19"/>
+      <c r="D367" s="20" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A368" s="20"/>
-      <c r="B368" s="20"/>
-      <c r="C368" s="20"/>
-      <c r="D368" s="21" t="s">
+      <c r="A368" s="19"/>
+      <c r="B368" s="19"/>
+      <c r="C368" s="19"/>
+      <c r="D368" s="20" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A369" s="20"/>
-      <c r="B369" s="20"/>
-      <c r="C369" s="20"/>
-      <c r="D369" s="21" t="s">
+      <c r="A369" s="19"/>
+      <c r="B369" s="19"/>
+      <c r="C369" s="19"/>
+      <c r="D369" s="20" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A370" s="20"/>
-      <c r="B370" s="20"/>
-      <c r="C370" s="20"/>
-      <c r="D370" s="21" t="s">
+      <c r="A370" s="19"/>
+      <c r="B370" s="19"/>
+      <c r="C370" s="19"/>
+      <c r="D370" s="20" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A371" s="20"/>
-      <c r="B371" s="20"/>
-      <c r="C371" s="20"/>
-      <c r="D371" s="21" t="s">
+      <c r="A371" s="19"/>
+      <c r="B371" s="19"/>
+      <c r="C371" s="19"/>
+      <c r="D371" s="20" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A372" s="20"/>
-      <c r="B372" s="20"/>
-      <c r="C372" s="20"/>
-      <c r="D372" s="21" t="s">
+      <c r="A372" s="19"/>
+      <c r="B372" s="19"/>
+      <c r="C372" s="19"/>
+      <c r="D372" s="20" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A373" s="20"/>
-      <c r="B373" s="20"/>
-      <c r="C373" s="20"/>
-      <c r="D373" s="21" t="s">
+      <c r="A373" s="19"/>
+      <c r="B373" s="19"/>
+      <c r="C373" s="19"/>
+      <c r="D373" s="20" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A374" s="20"/>
-      <c r="B374" s="20"/>
-      <c r="C374" s="20"/>
-      <c r="D374" s="21" t="s">
+      <c r="A374" s="19"/>
+      <c r="B374" s="19"/>
+      <c r="C374" s="19"/>
+      <c r="D374" s="20" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A375" s="20"/>
-      <c r="B375" s="20"/>
-      <c r="C375" s="20"/>
-      <c r="D375" s="21" t="s">
+      <c r="A375" s="19"/>
+      <c r="B375" s="19"/>
+      <c r="C375" s="19"/>
+      <c r="D375" s="20" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A376" s="20"/>
-      <c r="B376" s="20"/>
-      <c r="C376" s="20"/>
-      <c r="D376" s="21" t="s">
+      <c r="A376" s="19"/>
+      <c r="B376" s="19"/>
+      <c r="C376" s="19"/>
+      <c r="D376" s="20" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A377" s="20"/>
-      <c r="B377" s="20"/>
-      <c r="C377" s="20"/>
-      <c r="D377" s="21" t="s">
+      <c r="A377" s="19"/>
+      <c r="B377" s="19"/>
+      <c r="C377" s="19"/>
+      <c r="D377" s="20" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A378" s="20"/>
-      <c r="B378" s="20"/>
-      <c r="C378" s="20"/>
-      <c r="D378" s="21" t="s">
+      <c r="A378" s="19"/>
+      <c r="B378" s="19"/>
+      <c r="C378" s="19"/>
+      <c r="D378" s="20" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A379" s="20"/>
-      <c r="B379" s="20"/>
-      <c r="C379" s="20"/>
-      <c r="D379" s="21" t="s">
+      <c r="A379" s="19"/>
+      <c r="B379" s="19"/>
+      <c r="C379" s="19"/>
+      <c r="D379" s="20" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A380" s="20"/>
-      <c r="B380" s="20"/>
-      <c r="C380" s="20"/>
-      <c r="D380" s="21" t="s">
+      <c r="A380" s="19"/>
+      <c r="B380" s="19"/>
+      <c r="C380" s="19"/>
+      <c r="D380" s="20" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A381" s="20"/>
-      <c r="B381" s="20"/>
-      <c r="C381" s="20"/>
-      <c r="D381" s="21" t="s">
+      <c r="A381" s="19"/>
+      <c r="B381" s="19"/>
+      <c r="C381" s="19"/>
+      <c r="D381" s="20" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A382" s="20"/>
-      <c r="B382" s="20"/>
-      <c r="C382" s="20"/>
-      <c r="D382" s="21" t="s">
+      <c r="A382" s="19"/>
+      <c r="B382" s="19"/>
+      <c r="C382" s="19"/>
+      <c r="D382" s="20" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A383" s="20"/>
-      <c r="B383" s="20"/>
-      <c r="C383" s="20"/>
-      <c r="D383" s="21" t="s">
+      <c r="A383" s="19"/>
+      <c r="B383" s="19"/>
+      <c r="C383" s="19"/>
+      <c r="D383" s="20" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A384" s="20"/>
-      <c r="B384" s="20"/>
-      <c r="C384" s="20"/>
-      <c r="D384" s="21" t="s">
+      <c r="A384" s="19"/>
+      <c r="B384" s="19"/>
+      <c r="C384" s="19"/>
+      <c r="D384" s="20" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A385" s="20"/>
-      <c r="B385" s="20"/>
-      <c r="C385" s="20"/>
-      <c r="D385" s="21" t="s">
+      <c r="A385" s="19"/>
+      <c r="B385" s="19"/>
+      <c r="C385" s="19"/>
+      <c r="D385" s="20" t="s">
         <v>442</v>
       </c>
     </row>

--- a/backend/fms_core/tests/valid_templates/Experiment_run_MGI_vtest.xlsx
+++ b/backend/fms_core/tests/valid_templates/Experiment_run_MGI_vtest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasmineleblond-chartrand/c3g/freezeman/backend/fms_core/tests/valid_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF83BC2B-CA62-D648-B4B5-1E83907175B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713C1FB2-AA4A-7349-8402-3B9B615F2EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34340" yWindow="1660" windowWidth="25600" windowHeight="14420" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33820" yWindow="1900" windowWidth="25600" windowHeight="14420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiments" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="453">
   <si>
     <t>Experiment Submission Template</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Experiment Start Date</t>
   </si>
   <si>
-    <t>Experiment Name</t>
-  </si>
-  <si>
     <t>Flowcell Lot</t>
   </si>
   <si>
@@ -1389,9 +1386,6 @@
   </si>
   <si>
     <t>CONTAINERWITHSAMPLETESTMGI</t>
-  </si>
-  <si>
-    <t>expname</t>
   </si>
   <si>
     <t>flowlot</t>
@@ -1557,9 +1551,6 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1574,6 +1565,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1956,10 +1950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ170"/>
+  <dimension ref="A1:AMI170"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1967,36 +1961,36 @@
     <col min="1" max="1" width="25.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="48.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="37.83203125" style="1" customWidth="1"/>
-    <col min="4" max="6" width="24.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.5" customWidth="1"/>
-    <col min="14" max="14" width="13.1640625" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" customWidth="1"/>
-    <col min="16" max="16" width="12.5" customWidth="1"/>
-    <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="18" width="13.1640625" customWidth="1"/>
-    <col min="984" max="988" width="9.1640625" customWidth="1"/>
-    <col min="990" max="1024" width="9.1640625" customWidth="1"/>
+    <col min="4" max="5" width="24.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" customWidth="1"/>
+    <col min="15" max="15" width="12.5" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" customWidth="1"/>
+    <col min="983" max="987" width="9.1640625" customWidth="1"/>
+    <col min="989" max="1023" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1023" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1023" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1023" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2007,7 +2001,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1023" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -2018,20 +2012,20 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="6" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1023" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1023" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1023" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
     </row>
-    <row r="9" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1023" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -2039,11 +2033,11 @@
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -2053,9 +2047,8 @@
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-    </row>
-    <row r="10" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:1023" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
@@ -2071,7 +2064,7 @@
       <c r="E10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="11" t="s">
@@ -2107,9 +2100,7 @@
       <c r="Q10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="R10" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="ALA10"/>
       <c r="ALB10"/>
       <c r="ALC10"/>
       <c r="ALD10"/>
@@ -2144,954 +2135,869 @@
       <c r="AMG10"/>
       <c r="AMH10"/>
       <c r="AMI10"/>
-      <c r="AMJ10"/>
-    </row>
-    <row r="11" spans="1:1024" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:1023" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>444</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="23">
+        <v>53</v>
+      </c>
+      <c r="E11" s="22">
         <v>44228</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" t="s">
         <v>446</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="K11" t="s">
         <v>447</v>
       </c>
-      <c r="H11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" t="s">
         <v>448</v>
       </c>
-      <c r="L11" t="s">
+      <c r="N11" t="s">
         <v>449</v>
       </c>
-      <c r="M11" t="s">
-        <v>43</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>450</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>451</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>452</v>
       </c>
-      <c r="Q11" t="s">
-        <v>453</v>
-      </c>
-      <c r="R11" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1024" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:1023" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:1023" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:1023" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:1023" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:1024" x14ac:dyDescent="0.2">
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:1023" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E39" s="22"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="7"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E40" s="22"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="7"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="7"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E44" s="22"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E45" s="22"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E46" s="22"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="7"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E47" s="22"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="7"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E48" s="22"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="7"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E49" s="22"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="7"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E50" s="22"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="7"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E51" s="22"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="7"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E52" s="22"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="7"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E53" s="22"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="7"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E54" s="22"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="7"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E55" s="22"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="7"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E56" s="22"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="7"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E57" s="22"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="7"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E58" s="22"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="7"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E59" s="22"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="7"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E60" s="22"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="7"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E61" s="22"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="7"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E62" s="22"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="7"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E63" s="22"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="7"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E64" s="22"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="7"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E65" s="22"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="7"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E66" s="22"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="7"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E67" s="22"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="7"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E68" s="22"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="7"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E69" s="22"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="7"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E70" s="22"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="7"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E71" s="22"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="7"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E72" s="22"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="7"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E73" s="22"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="7"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E74" s="22"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="7"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E75" s="22"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="7"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E76" s="22"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="7"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E77" s="22"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="7"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E78" s="22"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="7"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E79" s="22"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="7"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E80" s="22"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="7"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E81" s="22"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="7"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E82" s="22"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="7"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E83" s="22"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="7"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E84" s="22"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="7"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E85" s="22"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="7"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E86" s="22"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="7"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E87" s="22"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="7"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E88" s="22"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="7"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E89" s="22"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="7"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E90" s="22"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="7"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E91" s="22"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="7"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E92" s="22"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="7"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E93" s="22"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="7"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E94" s="22"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="7"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E95" s="22"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C96" s="7"/>
-      <c r="E96" s="23"/>
+      <c r="E96" s="22"/>
     </row>
     <row r="97" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C97" s="7"/>
-      <c r="E97" s="23"/>
+      <c r="E97" s="22"/>
     </row>
     <row r="98" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C98" s="7"/>
-      <c r="E98" s="23"/>
+      <c r="E98" s="22"/>
     </row>
     <row r="99" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C99" s="7"/>
-      <c r="E99" s="23"/>
+      <c r="E99" s="22"/>
     </row>
     <row r="100" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C100" s="7"/>
-      <c r="E100" s="23"/>
+      <c r="E100" s="22"/>
     </row>
     <row r="101" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C101" s="7"/>
-      <c r="E101" s="23"/>
+      <c r="E101" s="22"/>
     </row>
     <row r="102" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C102" s="7"/>
-      <c r="E102" s="23"/>
+      <c r="E102" s="22"/>
     </row>
     <row r="103" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C103" s="7"/>
-      <c r="E103" s="23"/>
+      <c r="E103" s="22"/>
     </row>
     <row r="104" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C104" s="7"/>
-      <c r="E104" s="23"/>
+      <c r="E104" s="22"/>
     </row>
     <row r="105" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C105" s="7"/>
-      <c r="E105" s="23"/>
+      <c r="E105" s="22"/>
     </row>
     <row r="106" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C106" s="7"/>
-      <c r="E106" s="23"/>
+      <c r="E106" s="22"/>
     </row>
     <row r="107" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E107" s="23"/>
+      <c r="E107" s="22"/>
     </row>
     <row r="108" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E108" s="23"/>
+      <c r="E108" s="22"/>
     </row>
     <row r="109" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E109" s="23"/>
+      <c r="E109" s="22"/>
     </row>
     <row r="110" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E110" s="23"/>
+      <c r="E110" s="22"/>
     </row>
     <row r="111" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E111" s="23"/>
+      <c r="E111" s="22"/>
     </row>
     <row r="112" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E112" s="23"/>
+      <c r="E112" s="22"/>
     </row>
     <row r="113" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E113" s="23"/>
+      <c r="E113" s="22"/>
     </row>
     <row r="114" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E114" s="23"/>
+      <c r="E114" s="22"/>
     </row>
     <row r="115" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E115" s="23"/>
+      <c r="E115" s="22"/>
     </row>
     <row r="116" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E116" s="23"/>
+      <c r="E116" s="22"/>
     </row>
     <row r="117" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E117" s="23"/>
+      <c r="E117" s="22"/>
     </row>
     <row r="118" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E118" s="23"/>
+      <c r="E118" s="22"/>
     </row>
     <row r="119" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E119" s="23"/>
+      <c r="E119" s="22"/>
     </row>
     <row r="120" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E120" s="23"/>
+      <c r="E120" s="22"/>
     </row>
     <row r="121" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E121" s="23"/>
+      <c r="E121" s="22"/>
     </row>
     <row r="122" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E122" s="23"/>
+      <c r="E122" s="22"/>
     </row>
     <row r="123" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E123" s="23"/>
+      <c r="E123" s="22"/>
     </row>
     <row r="124" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E124" s="23"/>
+      <c r="E124" s="22"/>
     </row>
     <row r="125" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E125" s="23"/>
+      <c r="E125" s="22"/>
     </row>
     <row r="126" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E126" s="23"/>
+      <c r="E126" s="22"/>
     </row>
     <row r="127" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E127" s="23"/>
+      <c r="E127" s="22"/>
     </row>
     <row r="128" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E128" s="23"/>
+      <c r="E128" s="22"/>
     </row>
     <row r="129" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E129" s="23"/>
+      <c r="E129" s="22"/>
     </row>
     <row r="130" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E130" s="23"/>
+      <c r="E130" s="22"/>
     </row>
     <row r="131" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E131" s="23"/>
+      <c r="E131" s="22"/>
     </row>
     <row r="132" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E132" s="23"/>
+      <c r="E132" s="22"/>
     </row>
     <row r="133" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E133" s="23"/>
+      <c r="E133" s="22"/>
     </row>
     <row r="134" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E134" s="23"/>
+      <c r="E134" s="22"/>
     </row>
     <row r="135" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E135" s="23"/>
+      <c r="E135" s="22"/>
     </row>
     <row r="136" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E136" s="23"/>
+      <c r="E136" s="22"/>
     </row>
     <row r="137" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E137" s="23"/>
+      <c r="E137" s="22"/>
     </row>
     <row r="138" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E138" s="23"/>
+      <c r="E138" s="22"/>
     </row>
     <row r="139" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E139" s="23"/>
+      <c r="E139" s="22"/>
     </row>
     <row r="140" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E140" s="23"/>
+      <c r="E140" s="22"/>
     </row>
     <row r="141" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E141" s="23"/>
+      <c r="E141" s="22"/>
     </row>
     <row r="142" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E142" s="23"/>
+      <c r="E142" s="22"/>
     </row>
     <row r="143" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E143" s="23"/>
+      <c r="E143" s="22"/>
     </row>
     <row r="144" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E144" s="23"/>
+      <c r="E144" s="22"/>
     </row>
     <row r="145" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E145" s="23"/>
+      <c r="E145" s="22"/>
     </row>
     <row r="146" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E146" s="23"/>
+      <c r="E146" s="22"/>
     </row>
     <row r="147" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E147" s="23"/>
+      <c r="E147" s="22"/>
     </row>
     <row r="148" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E148" s="23"/>
+      <c r="E148" s="22"/>
     </row>
     <row r="149" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E149" s="23"/>
+      <c r="E149" s="22"/>
     </row>
     <row r="150" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E150" s="23"/>
+      <c r="E150" s="22"/>
     </row>
     <row r="151" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E151" s="23"/>
+      <c r="E151" s="22"/>
     </row>
     <row r="152" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E152" s="23"/>
+      <c r="E152" s="22"/>
     </row>
     <row r="153" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E153" s="23"/>
+      <c r="E153" s="22"/>
     </row>
     <row r="154" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E154" s="23"/>
+      <c r="E154" s="22"/>
     </row>
     <row r="155" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E155" s="23"/>
+      <c r="E155" s="22"/>
     </row>
     <row r="156" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E156" s="23"/>
+      <c r="E156" s="22"/>
     </row>
     <row r="157" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E157" s="23"/>
+      <c r="E157" s="22"/>
     </row>
     <row r="158" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E158" s="23"/>
+      <c r="E158" s="22"/>
     </row>
     <row r="159" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E159" s="23"/>
+      <c r="E159" s="22"/>
     </row>
     <row r="160" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E160" s="23"/>
+      <c r="E160" s="22"/>
     </row>
     <row r="161" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E161" s="23"/>
+      <c r="E161" s="22"/>
     </row>
     <row r="162" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E162" s="23"/>
+      <c r="E162" s="22"/>
     </row>
     <row r="163" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E163" s="23"/>
+      <c r="E163" s="22"/>
     </row>
     <row r="164" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E164" s="23"/>
+      <c r="E164" s="22"/>
     </row>
     <row r="165" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E165" s="23"/>
+      <c r="E165" s="22"/>
     </row>
     <row r="166" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E166" s="23"/>
+      <c r="E166" s="22"/>
     </row>
     <row r="167" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E167" s="23"/>
+      <c r="E167" s="22"/>
     </row>
     <row r="168" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E168" s="23"/>
+      <c r="E168" s="22"/>
     </row>
     <row r="169" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E169" s="23"/>
+      <c r="E169" s="22"/>
     </row>
     <row r="170" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E170" s="23"/>
+      <c r="E170" s="22"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F9:H9"/>
+  </mergeCells>
   <dataValidations count="1">
     <dataValidation operator="equal" allowBlank="1" showErrorMessage="1" sqref="E11" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
@@ -3129,7 +3035,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>H11:H30</xm:sqref>
+          <xm:sqref>G11:G30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
@@ -3138,7 +3044,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>I11:I30</xm:sqref>
+          <xm:sqref>H11:H30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
@@ -3147,7 +3053,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>J11:J30</xm:sqref>
+          <xm:sqref>I11:I30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
@@ -3156,7 +3062,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>M11:M30</xm:sqref>
+          <xm:sqref>L11:L30</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3187,46 +3093,46 @@
       </c>
     </row>
     <row r="3" spans="1:1022" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>27</v>
+      <c r="A3" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="15"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:1022" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:1022" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="D4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="E4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="AMF4" s="18"/>
-      <c r="AMG4" s="18"/>
-      <c r="AMH4" s="18"/>
+      <c r="AMF4" s="17"/>
+      <c r="AMG4" s="17"/>
+      <c r="AMH4" s="17"/>
     </row>
     <row r="5" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D5">
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
@@ -3284,9 +3190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I385"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3301,3367 +3205,3367 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>35</v>
-      </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
         <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="C2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>39</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>40</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>41</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>42</v>
       </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="B3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="D14" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="19" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="D26" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="20" t="s">
+      <c r="D38" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="18"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D51" s="19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="18"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D52" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20" t="s">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="18"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D53" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20" t="s">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="18"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D54" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20" t="s">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="18"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D55" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20" t="s">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D56" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20" t="s">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="18"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D57" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="20" t="s">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="18"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="20" t="s">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="18"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D59" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="20" t="s">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="18"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20" t="s">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="18"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D61" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="20" t="s">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="18"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="18"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="18"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="18"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="18"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="18"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="18"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="18"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="18"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="18"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="18"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="18"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="18"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="18"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D75" s="19" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D39" s="20" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="18"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D76" s="19" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" s="20" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="18"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D77" s="19" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" s="20" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="18"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D78" s="19" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="D42" s="20" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="18"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D79" s="19" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="19"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D43" s="20" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="18"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D80" s="19" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="19"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="D44" s="20" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="18"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D81" s="19" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="19"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="D45" s="20" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="18"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D82" s="19" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D46" s="20" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="18"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D83" s="19" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="D47" s="20" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="18"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D84" s="19" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D48" s="20" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="18"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D85" s="19" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="19"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="D49" s="20" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="18"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="18"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D87" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="18"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D88" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="18"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D89" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="18"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D90" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="18"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D91" s="19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="18"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D92" s="19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="18"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="18"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D94" s="19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="18"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D95" s="19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="18"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D96" s="19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="18"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D97" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="18"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="19"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="18"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="D50" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="19"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="20" t="s">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="18"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="D51" s="20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="19"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="20" t="s">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="18"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="D52" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="19"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="20" t="s">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="18"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="D53" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="20" t="s">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="18"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="D54" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="19"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="20" t="s">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="18"/>
+      <c r="B104" s="18"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="D55" s="20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="20" t="s">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="18"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="D56" s="20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="19"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="20" t="s">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="18"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="D57" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="19"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="20" t="s">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="18"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="D58" s="20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="19"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="20" t="s">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="18"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="D59" s="20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="19"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="20" t="s">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="18"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="D60" s="20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="19"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="20" t="s">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="18"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="18"/>
+      <c r="B111" s="18"/>
+      <c r="C111" s="18"/>
+      <c r="D111" s="19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="18"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="18"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="18"/>
+      <c r="B114" s="18"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="18"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="18"/>
+      <c r="B116" s="18"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="18"/>
+      <c r="B117" s="18"/>
+      <c r="C117" s="18"/>
+      <c r="D117" s="19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="18"/>
+      <c r="B118" s="18"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="18"/>
+      <c r="B119" s="18"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="18"/>
+      <c r="B120" s="18"/>
+      <c r="C120" s="18"/>
+      <c r="D120" s="19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="18"/>
+      <c r="B121" s="18"/>
+      <c r="C121" s="18"/>
+      <c r="D121" s="19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="18"/>
+      <c r="B122" s="18"/>
+      <c r="C122" s="18"/>
+      <c r="D122" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="D61" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="19"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="D62" s="20" t="s">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="18"/>
+      <c r="B123" s="18"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="19" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="19"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D63" s="20" t="s">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="18"/>
+      <c r="B124" s="18"/>
+      <c r="C124" s="18"/>
+      <c r="D124" s="19" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="19"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="D64" s="20" t="s">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="18"/>
+      <c r="B125" s="18"/>
+      <c r="C125" s="18"/>
+      <c r="D125" s="19" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="19"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="D65" s="20" t="s">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="18"/>
+      <c r="B126" s="18"/>
+      <c r="C126" s="18"/>
+      <c r="D126" s="19" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="19"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="D66" s="20" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="18"/>
+      <c r="B127" s="18"/>
+      <c r="C127" s="18"/>
+      <c r="D127" s="19" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="19"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="D67" s="20" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="18"/>
+      <c r="B128" s="18"/>
+      <c r="C128" s="18"/>
+      <c r="D128" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="19"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="D68" s="20" t="s">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="18"/>
+      <c r="B129" s="18"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="19" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="19"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="D69" s="20" t="s">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="18"/>
+      <c r="B130" s="18"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="19" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="19"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="D70" s="20" t="s">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="18"/>
+      <c r="B131" s="18"/>
+      <c r="C131" s="18"/>
+      <c r="D131" s="19" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="19"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="D71" s="20" t="s">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="18"/>
+      <c r="B132" s="18"/>
+      <c r="C132" s="18"/>
+      <c r="D132" s="19" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="19"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="D72" s="20" t="s">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="18"/>
+      <c r="B133" s="18"/>
+      <c r="C133" s="18"/>
+      <c r="D133" s="19" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="19"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="D73" s="20" t="s">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="18"/>
+      <c r="B134" s="18"/>
+      <c r="C134" s="18"/>
+      <c r="D134" s="19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="18"/>
+      <c r="B135" s="18"/>
+      <c r="C135" s="18"/>
+      <c r="D135" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="18"/>
+      <c r="B136" s="18"/>
+      <c r="C136" s="18"/>
+      <c r="D136" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="18"/>
+      <c r="B137" s="18"/>
+      <c r="C137" s="18"/>
+      <c r="D137" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="18"/>
+      <c r="B138" s="18"/>
+      <c r="C138" s="18"/>
+      <c r="D138" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="18"/>
+      <c r="B139" s="18"/>
+      <c r="C139" s="18"/>
+      <c r="D139" s="19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="18"/>
+      <c r="B140" s="18"/>
+      <c r="C140" s="18"/>
+      <c r="D140" s="19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="18"/>
+      <c r="B141" s="18"/>
+      <c r="C141" s="18"/>
+      <c r="D141" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="18"/>
+      <c r="B142" s="18"/>
+      <c r="C142" s="18"/>
+      <c r="D142" s="19" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="18"/>
+      <c r="B143" s="18"/>
+      <c r="C143" s="18"/>
+      <c r="D143" s="19" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="18"/>
+      <c r="B144" s="18"/>
+      <c r="C144" s="18"/>
+      <c r="D144" s="19" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="18"/>
+      <c r="B145" s="18"/>
+      <c r="C145" s="18"/>
+      <c r="D145" s="19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="18"/>
+      <c r="B146" s="18"/>
+      <c r="C146" s="18"/>
+      <c r="D146" s="19" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="19"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="20" t="s">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="18"/>
+      <c r="B147" s="18"/>
+      <c r="C147" s="18"/>
+      <c r="D147" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="D74" s="20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="19"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="20" t="s">
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="18"/>
+      <c r="B148" s="18"/>
+      <c r="C148" s="18"/>
+      <c r="D148" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="D75" s="20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="19"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="20" t="s">
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="18"/>
+      <c r="B149" s="18"/>
+      <c r="C149" s="18"/>
+      <c r="D149" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="D76" s="20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="19"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="20" t="s">
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="18"/>
+      <c r="B150" s="18"/>
+      <c r="C150" s="18"/>
+      <c r="D150" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="D77" s="20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="19"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="20" t="s">
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="18"/>
+      <c r="B151" s="18"/>
+      <c r="C151" s="18"/>
+      <c r="D151" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="D78" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="19"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="20" t="s">
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="18"/>
+      <c r="B152" s="18"/>
+      <c r="C152" s="18"/>
+      <c r="D152" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="D79" s="20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="19"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="20" t="s">
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="18"/>
+      <c r="B153" s="18"/>
+      <c r="C153" s="18"/>
+      <c r="D153" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="D80" s="20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="19"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="20" t="s">
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="18"/>
+      <c r="B154" s="18"/>
+      <c r="C154" s="18"/>
+      <c r="D154" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="D81" s="20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="19"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="20" t="s">
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="18"/>
+      <c r="B155" s="18"/>
+      <c r="C155" s="18"/>
+      <c r="D155" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D82" s="20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="19"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="20" t="s">
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="18"/>
+      <c r="B156" s="18"/>
+      <c r="C156" s="18"/>
+      <c r="D156" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="D83" s="20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="19"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="20" t="s">
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="18"/>
+      <c r="B157" s="18"/>
+      <c r="C157" s="18"/>
+      <c r="D157" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D84" s="20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="19"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="20" t="s">
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="18"/>
+      <c r="B158" s="18"/>
+      <c r="C158" s="18"/>
+      <c r="D158" s="19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="18"/>
+      <c r="B159" s="18"/>
+      <c r="C159" s="18"/>
+      <c r="D159" s="19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="18"/>
+      <c r="B160" s="18"/>
+      <c r="C160" s="18"/>
+      <c r="D160" s="19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="18"/>
+      <c r="B161" s="18"/>
+      <c r="C161" s="18"/>
+      <c r="D161" s="19" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="18"/>
+      <c r="B162" s="18"/>
+      <c r="C162" s="18"/>
+      <c r="D162" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="18"/>
+      <c r="B163" s="18"/>
+      <c r="C163" s="18"/>
+      <c r="D163" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="18"/>
+      <c r="B164" s="18"/>
+      <c r="C164" s="18"/>
+      <c r="D164" s="19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="18"/>
+      <c r="B165" s="18"/>
+      <c r="C165" s="18"/>
+      <c r="D165" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="18"/>
+      <c r="B166" s="18"/>
+      <c r="C166" s="18"/>
+      <c r="D166" s="19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="18"/>
+      <c r="B167" s="18"/>
+      <c r="C167" s="18"/>
+      <c r="D167" s="19" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="18"/>
+      <c r="B168" s="18"/>
+      <c r="C168" s="18"/>
+      <c r="D168" s="19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="18"/>
+      <c r="B169" s="18"/>
+      <c r="C169" s="18"/>
+      <c r="D169" s="19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="18"/>
+      <c r="B170" s="18"/>
+      <c r="C170" s="18"/>
+      <c r="D170" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="D85" s="20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="19"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="D86" s="20" t="s">
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="18"/>
+      <c r="B171" s="18"/>
+      <c r="C171" s="18"/>
+      <c r="D171" s="19" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="19"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="D87" s="20" t="s">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="18"/>
+      <c r="B172" s="18"/>
+      <c r="C172" s="18"/>
+      <c r="D172" s="19" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="19"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="D88" s="20" t="s">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="18"/>
+      <c r="B173" s="18"/>
+      <c r="C173" s="18"/>
+      <c r="D173" s="19" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="19"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="D89" s="20" t="s">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="18"/>
+      <c r="B174" s="18"/>
+      <c r="C174" s="18"/>
+      <c r="D174" s="19" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="19"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="D90" s="20" t="s">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="18"/>
+      <c r="B175" s="18"/>
+      <c r="C175" s="18"/>
+      <c r="D175" s="19" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="19"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="D91" s="20" t="s">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="18"/>
+      <c r="B176" s="18"/>
+      <c r="C176" s="18"/>
+      <c r="D176" s="19" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="19"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="D92" s="20" t="s">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="18"/>
+      <c r="B177" s="18"/>
+      <c r="C177" s="18"/>
+      <c r="D177" s="19" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="19"/>
-      <c r="B93" s="19"/>
-      <c r="C93" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="D93" s="20" t="s">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="18"/>
+      <c r="B178" s="18"/>
+      <c r="C178" s="18"/>
+      <c r="D178" s="19" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="19"/>
-      <c r="B94" s="19"/>
-      <c r="C94" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D94" s="20" t="s">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="18"/>
+      <c r="B179" s="18"/>
+      <c r="C179" s="18"/>
+      <c r="D179" s="19" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="19"/>
-      <c r="B95" s="19"/>
-      <c r="C95" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="D95" s="20" t="s">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="18"/>
+      <c r="B180" s="18"/>
+      <c r="C180" s="18"/>
+      <c r="D180" s="19" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="19"/>
-      <c r="B96" s="19"/>
-      <c r="C96" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="D96" s="20" t="s">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="18"/>
+      <c r="B181" s="18"/>
+      <c r="C181" s="18"/>
+      <c r="D181" s="19" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="19"/>
-      <c r="B97" s="19"/>
-      <c r="C97" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D97" s="20" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="19"/>
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="19"/>
-      <c r="B99" s="19"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="19"/>
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="20" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="19"/>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="19"/>
-      <c r="B102" s="19"/>
-      <c r="C102" s="19"/>
-      <c r="D102" s="20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="19"/>
-      <c r="B103" s="19"/>
-      <c r="C103" s="19"/>
-      <c r="D103" s="20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="19"/>
-      <c r="B104" s="19"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="20" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="19"/>
-      <c r="B105" s="19"/>
-      <c r="C105" s="19"/>
-      <c r="D105" s="20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="19"/>
-      <c r="B106" s="19"/>
-      <c r="C106" s="19"/>
-      <c r="D106" s="20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="19"/>
-      <c r="B107" s="19"/>
-      <c r="C107" s="19"/>
-      <c r="D107" s="20" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="19"/>
-      <c r="B108" s="19"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="19"/>
-      <c r="B109" s="19"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="19"/>
-      <c r="B110" s="19"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="20" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="19"/>
-      <c r="B111" s="19"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="20" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="19"/>
-      <c r="B112" s="19"/>
-      <c r="C112" s="19"/>
-      <c r="D112" s="20" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="19"/>
-      <c r="B113" s="19"/>
-      <c r="C113" s="19"/>
-      <c r="D113" s="20" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="19"/>
-      <c r="B114" s="19"/>
-      <c r="C114" s="19"/>
-      <c r="D114" s="20" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="19"/>
-      <c r="B115" s="19"/>
-      <c r="C115" s="19"/>
-      <c r="D115" s="20" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="19"/>
-      <c r="B116" s="19"/>
-      <c r="C116" s="19"/>
-      <c r="D116" s="20" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="19"/>
-      <c r="B117" s="19"/>
-      <c r="C117" s="19"/>
-      <c r="D117" s="20" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="19"/>
-      <c r="B118" s="19"/>
-      <c r="C118" s="19"/>
-      <c r="D118" s="20" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="19"/>
-      <c r="B119" s="19"/>
-      <c r="C119" s="19"/>
-      <c r="D119" s="20" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="19"/>
-      <c r="B120" s="19"/>
-      <c r="C120" s="19"/>
-      <c r="D120" s="20" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="19"/>
-      <c r="B121" s="19"/>
-      <c r="C121" s="19"/>
-      <c r="D121" s="20" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="19"/>
-      <c r="B122" s="19"/>
-      <c r="C122" s="19"/>
-      <c r="D122" s="20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="19"/>
-      <c r="B123" s="19"/>
-      <c r="C123" s="19"/>
-      <c r="D123" s="20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="19"/>
-      <c r="B124" s="19"/>
-      <c r="C124" s="19"/>
-      <c r="D124" s="20" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="19"/>
-      <c r="B125" s="19"/>
-      <c r="C125" s="19"/>
-      <c r="D125" s="20" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="19"/>
-      <c r="B126" s="19"/>
-      <c r="C126" s="19"/>
-      <c r="D126" s="20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="19"/>
-      <c r="B127" s="19"/>
-      <c r="C127" s="19"/>
-      <c r="D127" s="20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="19"/>
-      <c r="B128" s="19"/>
-      <c r="C128" s="19"/>
-      <c r="D128" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="19"/>
-      <c r="B129" s="19"/>
-      <c r="C129" s="19"/>
-      <c r="D129" s="20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="19"/>
-      <c r="B130" s="19"/>
-      <c r="C130" s="19"/>
-      <c r="D130" s="20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="19"/>
-      <c r="B131" s="19"/>
-      <c r="C131" s="19"/>
-      <c r="D131" s="20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="19"/>
-      <c r="B132" s="19"/>
-      <c r="C132" s="19"/>
-      <c r="D132" s="20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="19"/>
-      <c r="B133" s="19"/>
-      <c r="C133" s="19"/>
-      <c r="D133" s="20" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="19"/>
-      <c r="B134" s="19"/>
-      <c r="C134" s="19"/>
-      <c r="D134" s="20" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="19"/>
-      <c r="B135" s="19"/>
-      <c r="C135" s="19"/>
-      <c r="D135" s="20" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="19"/>
-      <c r="B136" s="19"/>
-      <c r="C136" s="19"/>
-      <c r="D136" s="20" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="19"/>
-      <c r="B137" s="19"/>
-      <c r="C137" s="19"/>
-      <c r="D137" s="20" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="19"/>
-      <c r="B138" s="19"/>
-      <c r="C138" s="19"/>
-      <c r="D138" s="20" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="19"/>
-      <c r="B139" s="19"/>
-      <c r="C139" s="19"/>
-      <c r="D139" s="20" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="19"/>
-      <c r="B140" s="19"/>
-      <c r="C140" s="19"/>
-      <c r="D140" s="20" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="19"/>
-      <c r="B141" s="19"/>
-      <c r="C141" s="19"/>
-      <c r="D141" s="20" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="19"/>
-      <c r="B142" s="19"/>
-      <c r="C142" s="19"/>
-      <c r="D142" s="20" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="19"/>
-      <c r="B143" s="19"/>
-      <c r="C143" s="19"/>
-      <c r="D143" s="20" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="19"/>
-      <c r="B144" s="19"/>
-      <c r="C144" s="19"/>
-      <c r="D144" s="20" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="19"/>
-      <c r="B145" s="19"/>
-      <c r="C145" s="19"/>
-      <c r="D145" s="20" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="19"/>
-      <c r="B146" s="19"/>
-      <c r="C146" s="19"/>
-      <c r="D146" s="20" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="19"/>
-      <c r="B147" s="19"/>
-      <c r="C147" s="19"/>
-      <c r="D147" s="20" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="19"/>
-      <c r="B148" s="19"/>
-      <c r="C148" s="19"/>
-      <c r="D148" s="20" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="19"/>
-      <c r="B149" s="19"/>
-      <c r="C149" s="19"/>
-      <c r="D149" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="19"/>
-      <c r="B150" s="19"/>
-      <c r="C150" s="19"/>
-      <c r="D150" s="20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="19"/>
-      <c r="B151" s="19"/>
-      <c r="C151" s="19"/>
-      <c r="D151" s="20" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="19"/>
-      <c r="B152" s="19"/>
-      <c r="C152" s="19"/>
-      <c r="D152" s="20" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="19"/>
-      <c r="B153" s="19"/>
-      <c r="C153" s="19"/>
-      <c r="D153" s="20" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="19"/>
-      <c r="B154" s="19"/>
-      <c r="C154" s="19"/>
-      <c r="D154" s="20" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" s="19"/>
-      <c r="B155" s="19"/>
-      <c r="C155" s="19"/>
-      <c r="D155" s="20" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="19"/>
-      <c r="B156" s="19"/>
-      <c r="C156" s="19"/>
-      <c r="D156" s="20" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="19"/>
-      <c r="B157" s="19"/>
-      <c r="C157" s="19"/>
-      <c r="D157" s="20" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="19"/>
-      <c r="B158" s="19"/>
-      <c r="C158" s="19"/>
-      <c r="D158" s="20" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="19"/>
-      <c r="B159" s="19"/>
-      <c r="C159" s="19"/>
-      <c r="D159" s="20" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="19"/>
-      <c r="B160" s="19"/>
-      <c r="C160" s="19"/>
-      <c r="D160" s="20" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" s="19"/>
-      <c r="B161" s="19"/>
-      <c r="C161" s="19"/>
-      <c r="D161" s="20" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" s="19"/>
-      <c r="B162" s="19"/>
-      <c r="C162" s="19"/>
-      <c r="D162" s="20" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="19"/>
-      <c r="B163" s="19"/>
-      <c r="C163" s="19"/>
-      <c r="D163" s="20" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" s="19"/>
-      <c r="B164" s="19"/>
-      <c r="C164" s="19"/>
-      <c r="D164" s="20" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" s="19"/>
-      <c r="B165" s="19"/>
-      <c r="C165" s="19"/>
-      <c r="D165" s="20" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" s="19"/>
-      <c r="B166" s="19"/>
-      <c r="C166" s="19"/>
-      <c r="D166" s="20" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" s="19"/>
-      <c r="B167" s="19"/>
-      <c r="C167" s="19"/>
-      <c r="D167" s="20" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" s="19"/>
-      <c r="B168" s="19"/>
-      <c r="C168" s="19"/>
-      <c r="D168" s="20" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" s="19"/>
-      <c r="B169" s="19"/>
-      <c r="C169" s="19"/>
-      <c r="D169" s="20" t="s">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="18"/>
+      <c r="B182" s="18"/>
+      <c r="C182" s="18"/>
+      <c r="D182" s="19" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="19"/>
-      <c r="B170" s="19"/>
-      <c r="C170" s="19"/>
-      <c r="D170" s="20" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" s="19"/>
-      <c r="B171" s="19"/>
-      <c r="C171" s="19"/>
-      <c r="D171" s="20" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A172" s="19"/>
-      <c r="B172" s="19"/>
-      <c r="C172" s="19"/>
-      <c r="D172" s="20" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" s="19"/>
-      <c r="B173" s="19"/>
-      <c r="C173" s="19"/>
-      <c r="D173" s="20" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" s="19"/>
-      <c r="B174" s="19"/>
-      <c r="C174" s="19"/>
-      <c r="D174" s="20" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="19"/>
-      <c r="B175" s="19"/>
-      <c r="C175" s="19"/>
-      <c r="D175" s="20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" s="19"/>
-      <c r="B176" s="19"/>
-      <c r="C176" s="19"/>
-      <c r="D176" s="20" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" s="19"/>
-      <c r="B177" s="19"/>
-      <c r="C177" s="19"/>
-      <c r="D177" s="20" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" s="19"/>
-      <c r="B178" s="19"/>
-      <c r="C178" s="19"/>
-      <c r="D178" s="20" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" s="19"/>
-      <c r="B179" s="19"/>
-      <c r="C179" s="19"/>
-      <c r="D179" s="20" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" s="19"/>
-      <c r="B180" s="19"/>
-      <c r="C180" s="19"/>
-      <c r="D180" s="20" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" s="19"/>
-      <c r="B181" s="19"/>
-      <c r="C181" s="19"/>
-      <c r="D181" s="20" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" s="19"/>
-      <c r="B182" s="19"/>
-      <c r="C182" s="19"/>
-      <c r="D182" s="20" t="s">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="18"/>
+      <c r="B183" s="18"/>
+      <c r="C183" s="18"/>
+      <c r="D183" s="19" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="19"/>
-      <c r="B183" s="19"/>
-      <c r="C183" s="19"/>
-      <c r="D183" s="20" t="s">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="18"/>
+      <c r="B184" s="18"/>
+      <c r="C184" s="18"/>
+      <c r="D184" s="19" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" s="19"/>
-      <c r="B184" s="19"/>
-      <c r="C184" s="19"/>
-      <c r="D184" s="20" t="s">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="18"/>
+      <c r="B185" s="18"/>
+      <c r="C185" s="18"/>
+      <c r="D185" s="19" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" s="19"/>
-      <c r="B185" s="19"/>
-      <c r="C185" s="19"/>
-      <c r="D185" s="20" t="s">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="18"/>
+      <c r="B186" s="18"/>
+      <c r="C186" s="18"/>
+      <c r="D186" s="19" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A186" s="19"/>
-      <c r="B186" s="19"/>
-      <c r="C186" s="19"/>
-      <c r="D186" s="20" t="s">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="18"/>
+      <c r="B187" s="18"/>
+      <c r="C187" s="18"/>
+      <c r="D187" s="19" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="19"/>
-      <c r="B187" s="19"/>
-      <c r="C187" s="19"/>
-      <c r="D187" s="20" t="s">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="18"/>
+      <c r="B188" s="18"/>
+      <c r="C188" s="18"/>
+      <c r="D188" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="19"/>
-      <c r="B188" s="19"/>
-      <c r="C188" s="19"/>
-      <c r="D188" s="20" t="s">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="18"/>
+      <c r="B189" s="18"/>
+      <c r="C189" s="18"/>
+      <c r="D189" s="19" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="19"/>
-      <c r="B189" s="19"/>
-      <c r="C189" s="19"/>
-      <c r="D189" s="20" t="s">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="18"/>
+      <c r="B190" s="18"/>
+      <c r="C190" s="18"/>
+      <c r="D190" s="19" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="19"/>
-      <c r="B190" s="19"/>
-      <c r="C190" s="19"/>
-      <c r="D190" s="20" t="s">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="18"/>
+      <c r="B191" s="18"/>
+      <c r="C191" s="18"/>
+      <c r="D191" s="19" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="19"/>
-      <c r="B191" s="19"/>
-      <c r="C191" s="19"/>
-      <c r="D191" s="20" t="s">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="18"/>
+      <c r="B192" s="18"/>
+      <c r="C192" s="18"/>
+      <c r="D192" s="19" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="19"/>
-      <c r="B192" s="19"/>
-      <c r="C192" s="19"/>
-      <c r="D192" s="20" t="s">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" s="18"/>
+      <c r="B193" s="18"/>
+      <c r="C193" s="18"/>
+      <c r="D193" s="19" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="19"/>
-      <c r="B193" s="19"/>
-      <c r="C193" s="19"/>
-      <c r="D193" s="20" t="s">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" s="18"/>
+      <c r="B194" s="18"/>
+      <c r="C194" s="18"/>
+      <c r="D194" s="19" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="19"/>
-      <c r="B194" s="19"/>
-      <c r="C194" s="19"/>
-      <c r="D194" s="20" t="s">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" s="18"/>
+      <c r="B195" s="18"/>
+      <c r="C195" s="18"/>
+      <c r="D195" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="19"/>
-      <c r="B195" s="19"/>
-      <c r="C195" s="19"/>
-      <c r="D195" s="20" t="s">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" s="18"/>
+      <c r="B196" s="18"/>
+      <c r="C196" s="18"/>
+      <c r="D196" s="19" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="19"/>
-      <c r="B196" s="19"/>
-      <c r="C196" s="19"/>
-      <c r="D196" s="20" t="s">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" s="18"/>
+      <c r="B197" s="18"/>
+      <c r="C197" s="18"/>
+      <c r="D197" s="19" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197" s="19"/>
-      <c r="B197" s="19"/>
-      <c r="C197" s="19"/>
-      <c r="D197" s="20" t="s">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" s="18"/>
+      <c r="B198" s="18"/>
+      <c r="C198" s="18"/>
+      <c r="D198" s="19" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="19"/>
-      <c r="B198" s="19"/>
-      <c r="C198" s="19"/>
-      <c r="D198" s="20" t="s">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" s="18"/>
+      <c r="B199" s="18"/>
+      <c r="C199" s="18"/>
+      <c r="D199" s="19" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="19"/>
-      <c r="B199" s="19"/>
-      <c r="C199" s="19"/>
-      <c r="D199" s="20" t="s">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" s="18"/>
+      <c r="B200" s="18"/>
+      <c r="C200" s="18"/>
+      <c r="D200" s="19" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="19"/>
-      <c r="B200" s="19"/>
-      <c r="C200" s="19"/>
-      <c r="D200" s="20" t="s">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" s="18"/>
+      <c r="B201" s="18"/>
+      <c r="C201" s="18"/>
+      <c r="D201" s="19" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="19"/>
-      <c r="B201" s="19"/>
-      <c r="C201" s="19"/>
-      <c r="D201" s="20" t="s">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" s="18"/>
+      <c r="B202" s="18"/>
+      <c r="C202" s="18"/>
+      <c r="D202" s="19" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="19"/>
-      <c r="B202" s="19"/>
-      <c r="C202" s="19"/>
-      <c r="D202" s="20" t="s">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" s="18"/>
+      <c r="B203" s="18"/>
+      <c r="C203" s="18"/>
+      <c r="D203" s="19" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="19"/>
-      <c r="B203" s="19"/>
-      <c r="C203" s="19"/>
-      <c r="D203" s="20" t="s">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" s="18"/>
+      <c r="B204" s="18"/>
+      <c r="C204" s="18"/>
+      <c r="D204" s="19" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="19"/>
-      <c r="B204" s="19"/>
-      <c r="C204" s="19"/>
-      <c r="D204" s="20" t="s">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" s="18"/>
+      <c r="B205" s="18"/>
+      <c r="C205" s="18"/>
+      <c r="D205" s="19" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="19"/>
-      <c r="B205" s="19"/>
-      <c r="C205" s="19"/>
-      <c r="D205" s="20" t="s">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" s="18"/>
+      <c r="B206" s="18"/>
+      <c r="C206" s="18"/>
+      <c r="D206" s="19" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="19"/>
-      <c r="B206" s="19"/>
-      <c r="C206" s="19"/>
-      <c r="D206" s="20" t="s">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" s="18"/>
+      <c r="B207" s="18"/>
+      <c r="C207" s="18"/>
+      <c r="D207" s="19" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="19"/>
-      <c r="B207" s="19"/>
-      <c r="C207" s="19"/>
-      <c r="D207" s="20" t="s">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" s="18"/>
+      <c r="B208" s="18"/>
+      <c r="C208" s="18"/>
+      <c r="D208" s="19" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A208" s="19"/>
-      <c r="B208" s="19"/>
-      <c r="C208" s="19"/>
-      <c r="D208" s="20" t="s">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" s="18"/>
+      <c r="B209" s="18"/>
+      <c r="C209" s="18"/>
+      <c r="D209" s="19" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="19"/>
-      <c r="B209" s="19"/>
-      <c r="C209" s="19"/>
-      <c r="D209" s="20" t="s">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" s="18"/>
+      <c r="B210" s="18"/>
+      <c r="C210" s="18"/>
+      <c r="D210" s="19" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="19"/>
-      <c r="B210" s="19"/>
-      <c r="C210" s="19"/>
-      <c r="D210" s="20" t="s">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" s="18"/>
+      <c r="B211" s="18"/>
+      <c r="C211" s="18"/>
+      <c r="D211" s="19" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="19"/>
-      <c r="B211" s="19"/>
-      <c r="C211" s="19"/>
-      <c r="D211" s="20" t="s">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" s="18"/>
+      <c r="B212" s="18"/>
+      <c r="C212" s="18"/>
+      <c r="D212" s="19" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="19"/>
-      <c r="B212" s="19"/>
-      <c r="C212" s="19"/>
-      <c r="D212" s="20" t="s">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" s="18"/>
+      <c r="B213" s="18"/>
+      <c r="C213" s="18"/>
+      <c r="D213" s="19" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="19"/>
-      <c r="B213" s="19"/>
-      <c r="C213" s="19"/>
-      <c r="D213" s="20" t="s">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" s="18"/>
+      <c r="B214" s="18"/>
+      <c r="C214" s="18"/>
+      <c r="D214" s="19" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="19"/>
-      <c r="B214" s="19"/>
-      <c r="C214" s="19"/>
-      <c r="D214" s="20" t="s">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" s="18"/>
+      <c r="B215" s="18"/>
+      <c r="C215" s="18"/>
+      <c r="D215" s="19" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="19"/>
-      <c r="B215" s="19"/>
-      <c r="C215" s="19"/>
-      <c r="D215" s="20" t="s">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" s="18"/>
+      <c r="B216" s="18"/>
+      <c r="C216" s="18"/>
+      <c r="D216" s="19" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="19"/>
-      <c r="B216" s="19"/>
-      <c r="C216" s="19"/>
-      <c r="D216" s="20" t="s">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" s="18"/>
+      <c r="B217" s="18"/>
+      <c r="C217" s="18"/>
+      <c r="D217" s="19" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="19"/>
-      <c r="B217" s="19"/>
-      <c r="C217" s="19"/>
-      <c r="D217" s="20" t="s">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" s="18"/>
+      <c r="B218" s="18"/>
+      <c r="C218" s="18"/>
+      <c r="D218" s="19" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="19"/>
-      <c r="B218" s="19"/>
-      <c r="C218" s="19"/>
-      <c r="D218" s="20" t="s">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" s="18"/>
+      <c r="B219" s="18"/>
+      <c r="C219" s="18"/>
+      <c r="D219" s="19" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A219" s="19"/>
-      <c r="B219" s="19"/>
-      <c r="C219" s="19"/>
-      <c r="D219" s="20" t="s">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" s="18"/>
+      <c r="B220" s="18"/>
+      <c r="C220" s="18"/>
+      <c r="D220" s="19" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="19"/>
-      <c r="B220" s="19"/>
-      <c r="C220" s="19"/>
-      <c r="D220" s="20" t="s">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" s="18"/>
+      <c r="B221" s="18"/>
+      <c r="C221" s="18"/>
+      <c r="D221" s="19" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="19"/>
-      <c r="B221" s="19"/>
-      <c r="C221" s="19"/>
-      <c r="D221" s="20" t="s">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" s="18"/>
+      <c r="B222" s="18"/>
+      <c r="C222" s="18"/>
+      <c r="D222" s="19" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="19"/>
-      <c r="B222" s="19"/>
-      <c r="C222" s="19"/>
-      <c r="D222" s="20" t="s">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" s="18"/>
+      <c r="B223" s="18"/>
+      <c r="C223" s="18"/>
+      <c r="D223" s="19" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="19"/>
-      <c r="B223" s="19"/>
-      <c r="C223" s="19"/>
-      <c r="D223" s="20" t="s">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" s="18"/>
+      <c r="B224" s="18"/>
+      <c r="C224" s="18"/>
+      <c r="D224" s="19" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="19"/>
-      <c r="B224" s="19"/>
-      <c r="C224" s="19"/>
-      <c r="D224" s="20" t="s">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" s="18"/>
+      <c r="B225" s="18"/>
+      <c r="C225" s="18"/>
+      <c r="D225" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" s="19"/>
-      <c r="B225" s="19"/>
-      <c r="C225" s="19"/>
-      <c r="D225" s="20" t="s">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" s="18"/>
+      <c r="B226" s="18"/>
+      <c r="C226" s="18"/>
+      <c r="D226" s="19" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" s="19"/>
-      <c r="B226" s="19"/>
-      <c r="C226" s="19"/>
-      <c r="D226" s="20" t="s">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" s="18"/>
+      <c r="B227" s="18"/>
+      <c r="C227" s="18"/>
+      <c r="D227" s="19" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" s="19"/>
-      <c r="B227" s="19"/>
-      <c r="C227" s="19"/>
-      <c r="D227" s="20" t="s">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" s="18"/>
+      <c r="B228" s="18"/>
+      <c r="C228" s="18"/>
+      <c r="D228" s="19" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" s="19"/>
-      <c r="B228" s="19"/>
-      <c r="C228" s="19"/>
-      <c r="D228" s="20" t="s">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" s="18"/>
+      <c r="B229" s="18"/>
+      <c r="C229" s="18"/>
+      <c r="D229" s="19" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="19"/>
-      <c r="B229" s="19"/>
-      <c r="C229" s="19"/>
-      <c r="D229" s="20" t="s">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" s="18"/>
+      <c r="B230" s="18"/>
+      <c r="C230" s="18"/>
+      <c r="D230" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A230" s="19"/>
-      <c r="B230" s="19"/>
-      <c r="C230" s="19"/>
-      <c r="D230" s="20" t="s">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" s="18"/>
+      <c r="B231" s="18"/>
+      <c r="C231" s="18"/>
+      <c r="D231" s="19" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="19"/>
-      <c r="B231" s="19"/>
-      <c r="C231" s="19"/>
-      <c r="D231" s="20" t="s">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" s="18"/>
+      <c r="B232" s="18"/>
+      <c r="C232" s="18"/>
+      <c r="D232" s="19" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="19"/>
-      <c r="B232" s="19"/>
-      <c r="C232" s="19"/>
-      <c r="D232" s="20" t="s">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" s="18"/>
+      <c r="B233" s="18"/>
+      <c r="C233" s="18"/>
+      <c r="D233" s="19" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" s="19"/>
-      <c r="B233" s="19"/>
-      <c r="C233" s="19"/>
-      <c r="D233" s="20" t="s">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" s="18"/>
+      <c r="B234" s="18"/>
+      <c r="C234" s="18"/>
+      <c r="D234" s="19" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="19"/>
-      <c r="B234" s="19"/>
-      <c r="C234" s="19"/>
-      <c r="D234" s="20" t="s">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" s="18"/>
+      <c r="B235" s="18"/>
+      <c r="C235" s="18"/>
+      <c r="D235" s="19" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="19"/>
-      <c r="B235" s="19"/>
-      <c r="C235" s="19"/>
-      <c r="D235" s="20" t="s">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" s="18"/>
+      <c r="B236" s="18"/>
+      <c r="C236" s="18"/>
+      <c r="D236" s="19" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="19"/>
-      <c r="B236" s="19"/>
-      <c r="C236" s="19"/>
-      <c r="D236" s="20" t="s">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237" s="18"/>
+      <c r="B237" s="18"/>
+      <c r="C237" s="18"/>
+      <c r="D237" s="19" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" s="19"/>
-      <c r="B237" s="19"/>
-      <c r="C237" s="19"/>
-      <c r="D237" s="20" t="s">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238" s="18"/>
+      <c r="B238" s="18"/>
+      <c r="C238" s="18"/>
+      <c r="D238" s="19" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="19"/>
-      <c r="B238" s="19"/>
-      <c r="C238" s="19"/>
-      <c r="D238" s="20" t="s">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" s="18"/>
+      <c r="B239" s="18"/>
+      <c r="C239" s="18"/>
+      <c r="D239" s="19" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" s="19"/>
-      <c r="B239" s="19"/>
-      <c r="C239" s="19"/>
-      <c r="D239" s="20" t="s">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" s="18"/>
+      <c r="B240" s="18"/>
+      <c r="C240" s="18"/>
+      <c r="D240" s="19" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="19"/>
-      <c r="B240" s="19"/>
-      <c r="C240" s="19"/>
-      <c r="D240" s="20" t="s">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" s="18"/>
+      <c r="B241" s="18"/>
+      <c r="C241" s="18"/>
+      <c r="D241" s="19" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="19"/>
-      <c r="B241" s="19"/>
-      <c r="C241" s="19"/>
-      <c r="D241" s="20" t="s">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" s="18"/>
+      <c r="B242" s="18"/>
+      <c r="C242" s="18"/>
+      <c r="D242" s="19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" s="19"/>
-      <c r="B242" s="19"/>
-      <c r="C242" s="19"/>
-      <c r="D242" s="20" t="s">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243" s="18"/>
+      <c r="B243" s="18"/>
+      <c r="C243" s="18"/>
+      <c r="D243" s="19" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A243" s="19"/>
-      <c r="B243" s="19"/>
-      <c r="C243" s="19"/>
-      <c r="D243" s="20" t="s">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244" s="18"/>
+      <c r="B244" s="18"/>
+      <c r="C244" s="18"/>
+      <c r="D244" s="19" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" s="19"/>
-      <c r="B244" s="19"/>
-      <c r="C244" s="19"/>
-      <c r="D244" s="20" t="s">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245" s="18"/>
+      <c r="B245" s="18"/>
+      <c r="C245" s="18"/>
+      <c r="D245" s="19" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" s="19"/>
-      <c r="B245" s="19"/>
-      <c r="C245" s="19"/>
-      <c r="D245" s="20" t="s">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246" s="18"/>
+      <c r="B246" s="18"/>
+      <c r="C246" s="18"/>
+      <c r="D246" s="19" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" s="19"/>
-      <c r="B246" s="19"/>
-      <c r="C246" s="19"/>
-      <c r="D246" s="20" t="s">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247" s="18"/>
+      <c r="B247" s="18"/>
+      <c r="C247" s="18"/>
+      <c r="D247" s="19" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" s="19"/>
-      <c r="B247" s="19"/>
-      <c r="C247" s="19"/>
-      <c r="D247" s="20" t="s">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248" s="18"/>
+      <c r="B248" s="18"/>
+      <c r="C248" s="18"/>
+      <c r="D248" s="19" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" s="19"/>
-      <c r="B248" s="19"/>
-      <c r="C248" s="19"/>
-      <c r="D248" s="20" t="s">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249" s="18"/>
+      <c r="B249" s="18"/>
+      <c r="C249" s="18"/>
+      <c r="D249" s="19" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" s="19"/>
-      <c r="B249" s="19"/>
-      <c r="C249" s="19"/>
-      <c r="D249" s="20" t="s">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250" s="18"/>
+      <c r="B250" s="18"/>
+      <c r="C250" s="18"/>
+      <c r="D250" s="19" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250" s="19"/>
-      <c r="B250" s="19"/>
-      <c r="C250" s="19"/>
-      <c r="D250" s="20" t="s">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251" s="18"/>
+      <c r="B251" s="18"/>
+      <c r="C251" s="18"/>
+      <c r="D251" s="19" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" s="19"/>
-      <c r="B251" s="19"/>
-      <c r="C251" s="19"/>
-      <c r="D251" s="20" t="s">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" s="18"/>
+      <c r="B252" s="18"/>
+      <c r="C252" s="18"/>
+      <c r="D252" s="19" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" s="19"/>
-      <c r="B252" s="19"/>
-      <c r="C252" s="19"/>
-      <c r="D252" s="20" t="s">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253" s="18"/>
+      <c r="B253" s="18"/>
+      <c r="C253" s="18"/>
+      <c r="D253" s="19" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A253" s="19"/>
-      <c r="B253" s="19"/>
-      <c r="C253" s="19"/>
-      <c r="D253" s="20" t="s">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254" s="18"/>
+      <c r="B254" s="18"/>
+      <c r="C254" s="18"/>
+      <c r="D254" s="19" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" s="19"/>
-      <c r="B254" s="19"/>
-      <c r="C254" s="19"/>
-      <c r="D254" s="20" t="s">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255" s="18"/>
+      <c r="B255" s="18"/>
+      <c r="C255" s="18"/>
+      <c r="D255" s="19" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" s="19"/>
-      <c r="B255" s="19"/>
-      <c r="C255" s="19"/>
-      <c r="D255" s="20" t="s">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256" s="18"/>
+      <c r="B256" s="18"/>
+      <c r="C256" s="18"/>
+      <c r="D256" s="19" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A256" s="19"/>
-      <c r="B256" s="19"/>
-      <c r="C256" s="19"/>
-      <c r="D256" s="20" t="s">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257" s="18"/>
+      <c r="B257" s="18"/>
+      <c r="C257" s="18"/>
+      <c r="D257" s="19" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" s="19"/>
-      <c r="B257" s="19"/>
-      <c r="C257" s="19"/>
-      <c r="D257" s="20" t="s">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258" s="18"/>
+      <c r="B258" s="18"/>
+      <c r="C258" s="18"/>
+      <c r="D258" s="19" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" s="19"/>
-      <c r="B258" s="19"/>
-      <c r="C258" s="19"/>
-      <c r="D258" s="20" t="s">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259" s="18"/>
+      <c r="B259" s="18"/>
+      <c r="C259" s="18"/>
+      <c r="D259" s="19" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" s="19"/>
-      <c r="B259" s="19"/>
-      <c r="C259" s="19"/>
-      <c r="D259" s="20" t="s">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260" s="18"/>
+      <c r="B260" s="18"/>
+      <c r="C260" s="18"/>
+      <c r="D260" s="19" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" s="19"/>
-      <c r="B260" s="19"/>
-      <c r="C260" s="19"/>
-      <c r="D260" s="20" t="s">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261" s="18"/>
+      <c r="B261" s="18"/>
+      <c r="C261" s="18"/>
+      <c r="D261" s="19" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A261" s="19"/>
-      <c r="B261" s="19"/>
-      <c r="C261" s="19"/>
-      <c r="D261" s="20" t="s">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262" s="18"/>
+      <c r="B262" s="18"/>
+      <c r="C262" s="18"/>
+      <c r="D262" s="19" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262" s="19"/>
-      <c r="B262" s="19"/>
-      <c r="C262" s="19"/>
-      <c r="D262" s="20" t="s">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263" s="18"/>
+      <c r="B263" s="18"/>
+      <c r="C263" s="18"/>
+      <c r="D263" s="19" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263" s="19"/>
-      <c r="B263" s="19"/>
-      <c r="C263" s="19"/>
-      <c r="D263" s="20" t="s">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264" s="18"/>
+      <c r="B264" s="18"/>
+      <c r="C264" s="18"/>
+      <c r="D264" s="19" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" s="19"/>
-      <c r="B264" s="19"/>
-      <c r="C264" s="19"/>
-      <c r="D264" s="20" t="s">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265" s="18"/>
+      <c r="B265" s="18"/>
+      <c r="C265" s="18"/>
+      <c r="D265" s="19" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" s="19"/>
-      <c r="B265" s="19"/>
-      <c r="C265" s="19"/>
-      <c r="D265" s="20" t="s">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266" s="18"/>
+      <c r="B266" s="18"/>
+      <c r="C266" s="18"/>
+      <c r="D266" s="19" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A266" s="19"/>
-      <c r="B266" s="19"/>
-      <c r="C266" s="19"/>
-      <c r="D266" s="20" t="s">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267" s="18"/>
+      <c r="B267" s="18"/>
+      <c r="C267" s="18"/>
+      <c r="D267" s="19" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" s="19"/>
-      <c r="B267" s="19"/>
-      <c r="C267" s="19"/>
-      <c r="D267" s="20" t="s">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268" s="18"/>
+      <c r="B268" s="18"/>
+      <c r="C268" s="18"/>
+      <c r="D268" s="19" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" s="19"/>
-      <c r="B268" s="19"/>
-      <c r="C268" s="19"/>
-      <c r="D268" s="20" t="s">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269" s="18"/>
+      <c r="B269" s="18"/>
+      <c r="C269" s="18"/>
+      <c r="D269" s="19" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A269" s="19"/>
-      <c r="B269" s="19"/>
-      <c r="C269" s="19"/>
-      <c r="D269" s="20" t="s">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270" s="18"/>
+      <c r="B270" s="18"/>
+      <c r="C270" s="18"/>
+      <c r="D270" s="19" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A270" s="19"/>
-      <c r="B270" s="19"/>
-      <c r="C270" s="19"/>
-      <c r="D270" s="20" t="s">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271" s="18"/>
+      <c r="B271" s="18"/>
+      <c r="C271" s="18"/>
+      <c r="D271" s="19" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271" s="19"/>
-      <c r="B271" s="19"/>
-      <c r="C271" s="19"/>
-      <c r="D271" s="20" t="s">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272" s="18"/>
+      <c r="B272" s="18"/>
+      <c r="C272" s="18"/>
+      <c r="D272" s="19" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272" s="19"/>
-      <c r="B272" s="19"/>
-      <c r="C272" s="19"/>
-      <c r="D272" s="20" t="s">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273" s="18"/>
+      <c r="B273" s="18"/>
+      <c r="C273" s="18"/>
+      <c r="D273" s="19" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A273" s="19"/>
-      <c r="B273" s="19"/>
-      <c r="C273" s="19"/>
-      <c r="D273" s="20" t="s">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274" s="18"/>
+      <c r="B274" s="18"/>
+      <c r="C274" s="18"/>
+      <c r="D274" s="19" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A274" s="19"/>
-      <c r="B274" s="19"/>
-      <c r="C274" s="19"/>
-      <c r="D274" s="20" t="s">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275" s="18"/>
+      <c r="B275" s="18"/>
+      <c r="C275" s="18"/>
+      <c r="D275" s="19" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A275" s="19"/>
-      <c r="B275" s="19"/>
-      <c r="C275" s="19"/>
-      <c r="D275" s="20" t="s">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276" s="18"/>
+      <c r="B276" s="18"/>
+      <c r="C276" s="18"/>
+      <c r="D276" s="19" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A276" s="19"/>
-      <c r="B276" s="19"/>
-      <c r="C276" s="19"/>
-      <c r="D276" s="20" t="s">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" s="18"/>
+      <c r="B277" s="18"/>
+      <c r="C277" s="18"/>
+      <c r="D277" s="19" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A277" s="19"/>
-      <c r="B277" s="19"/>
-      <c r="C277" s="19"/>
-      <c r="D277" s="20" t="s">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278" s="18"/>
+      <c r="B278" s="18"/>
+      <c r="C278" s="18"/>
+      <c r="D278" s="19" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A278" s="19"/>
-      <c r="B278" s="19"/>
-      <c r="C278" s="19"/>
-      <c r="D278" s="20" t="s">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279" s="18"/>
+      <c r="B279" s="18"/>
+      <c r="C279" s="18"/>
+      <c r="D279" s="19" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A279" s="19"/>
-      <c r="B279" s="19"/>
-      <c r="C279" s="19"/>
-      <c r="D279" s="20" t="s">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280" s="18"/>
+      <c r="B280" s="18"/>
+      <c r="C280" s="18"/>
+      <c r="D280" s="19" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A280" s="19"/>
-      <c r="B280" s="19"/>
-      <c r="C280" s="19"/>
-      <c r="D280" s="20" t="s">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281" s="18"/>
+      <c r="B281" s="18"/>
+      <c r="C281" s="18"/>
+      <c r="D281" s="19" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A281" s="19"/>
-      <c r="B281" s="19"/>
-      <c r="C281" s="19"/>
-      <c r="D281" s="20" t="s">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282" s="18"/>
+      <c r="B282" s="18"/>
+      <c r="C282" s="18"/>
+      <c r="D282" s="19" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A282" s="19"/>
-      <c r="B282" s="19"/>
-      <c r="C282" s="19"/>
-      <c r="D282" s="20" t="s">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283" s="18"/>
+      <c r="B283" s="18"/>
+      <c r="C283" s="18"/>
+      <c r="D283" s="19" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A283" s="19"/>
-      <c r="B283" s="19"/>
-      <c r="C283" s="19"/>
-      <c r="D283" s="20" t="s">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A284" s="18"/>
+      <c r="B284" s="18"/>
+      <c r="C284" s="18"/>
+      <c r="D284" s="19" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A284" s="19"/>
-      <c r="B284" s="19"/>
-      <c r="C284" s="19"/>
-      <c r="D284" s="20" t="s">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285" s="18"/>
+      <c r="B285" s="18"/>
+      <c r="C285" s="18"/>
+      <c r="D285" s="19" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A285" s="19"/>
-      <c r="B285" s="19"/>
-      <c r="C285" s="19"/>
-      <c r="D285" s="20" t="s">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286" s="18"/>
+      <c r="B286" s="18"/>
+      <c r="C286" s="18"/>
+      <c r="D286" s="19" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A286" s="19"/>
-      <c r="B286" s="19"/>
-      <c r="C286" s="19"/>
-      <c r="D286" s="20" t="s">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A287" s="18"/>
+      <c r="B287" s="18"/>
+      <c r="C287" s="18"/>
+      <c r="D287" s="19" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A287" s="19"/>
-      <c r="B287" s="19"/>
-      <c r="C287" s="19"/>
-      <c r="D287" s="20" t="s">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288" s="18"/>
+      <c r="B288" s="18"/>
+      <c r="C288" s="18"/>
+      <c r="D288" s="19" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A288" s="19"/>
-      <c r="B288" s="19"/>
-      <c r="C288" s="19"/>
-      <c r="D288" s="20" t="s">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289" s="18"/>
+      <c r="B289" s="18"/>
+      <c r="C289" s="18"/>
+      <c r="D289" s="19" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A289" s="19"/>
-      <c r="B289" s="19"/>
-      <c r="C289" s="19"/>
-      <c r="D289" s="20" t="s">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290" s="18"/>
+      <c r="B290" s="18"/>
+      <c r="C290" s="18"/>
+      <c r="D290" s="19" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A290" s="19"/>
-      <c r="B290" s="19"/>
-      <c r="C290" s="19"/>
-      <c r="D290" s="20" t="s">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291" s="18"/>
+      <c r="B291" s="18"/>
+      <c r="C291" s="18"/>
+      <c r="D291" s="19" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A291" s="19"/>
-      <c r="B291" s="19"/>
-      <c r="C291" s="19"/>
-      <c r="D291" s="20" t="s">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A292" s="18"/>
+      <c r="B292" s="18"/>
+      <c r="C292" s="18"/>
+      <c r="D292" s="19" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A292" s="19"/>
-      <c r="B292" s="19"/>
-      <c r="C292" s="19"/>
-      <c r="D292" s="20" t="s">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293" s="18"/>
+      <c r="B293" s="18"/>
+      <c r="C293" s="18"/>
+      <c r="D293" s="19" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A293" s="19"/>
-      <c r="B293" s="19"/>
-      <c r="C293" s="19"/>
-      <c r="D293" s="20" t="s">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A294" s="18"/>
+      <c r="B294" s="18"/>
+      <c r="C294" s="18"/>
+      <c r="D294" s="19" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A294" s="19"/>
-      <c r="B294" s="19"/>
-      <c r="C294" s="19"/>
-      <c r="D294" s="20" t="s">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A295" s="18"/>
+      <c r="B295" s="18"/>
+      <c r="C295" s="18"/>
+      <c r="D295" s="19" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A295" s="19"/>
-      <c r="B295" s="19"/>
-      <c r="C295" s="19"/>
-      <c r="D295" s="20" t="s">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A296" s="18"/>
+      <c r="B296" s="18"/>
+      <c r="C296" s="18"/>
+      <c r="D296" s="19" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A296" s="19"/>
-      <c r="B296" s="19"/>
-      <c r="C296" s="19"/>
-      <c r="D296" s="20" t="s">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297" s="18"/>
+      <c r="B297" s="18"/>
+      <c r="C297" s="18"/>
+      <c r="D297" s="19" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A297" s="19"/>
-      <c r="B297" s="19"/>
-      <c r="C297" s="19"/>
-      <c r="D297" s="20" t="s">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A298" s="18"/>
+      <c r="B298" s="18"/>
+      <c r="C298" s="18"/>
+      <c r="D298" s="19" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A298" s="19"/>
-      <c r="B298" s="19"/>
-      <c r="C298" s="19"/>
-      <c r="D298" s="20" t="s">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299" s="18"/>
+      <c r="B299" s="18"/>
+      <c r="C299" s="18"/>
+      <c r="D299" s="19" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A299" s="19"/>
-      <c r="B299" s="19"/>
-      <c r="C299" s="19"/>
-      <c r="D299" s="20" t="s">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300" s="18"/>
+      <c r="B300" s="18"/>
+      <c r="C300" s="18"/>
+      <c r="D300" s="19" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A300" s="19"/>
-      <c r="B300" s="19"/>
-      <c r="C300" s="19"/>
-      <c r="D300" s="20" t="s">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301" s="18"/>
+      <c r="B301" s="18"/>
+      <c r="C301" s="18"/>
+      <c r="D301" s="19" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A301" s="19"/>
-      <c r="B301" s="19"/>
-      <c r="C301" s="19"/>
-      <c r="D301" s="20" t="s">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302" s="18"/>
+      <c r="B302" s="18"/>
+      <c r="C302" s="18"/>
+      <c r="D302" s="19" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A302" s="19"/>
-      <c r="B302" s="19"/>
-      <c r="C302" s="19"/>
-      <c r="D302" s="20" t="s">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A303" s="18"/>
+      <c r="B303" s="18"/>
+      <c r="C303" s="18"/>
+      <c r="D303" s="19" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A303" s="19"/>
-      <c r="B303" s="19"/>
-      <c r="C303" s="19"/>
-      <c r="D303" s="20" t="s">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A304" s="18"/>
+      <c r="B304" s="18"/>
+      <c r="C304" s="18"/>
+      <c r="D304" s="19" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A304" s="19"/>
-      <c r="B304" s="19"/>
-      <c r="C304" s="19"/>
-      <c r="D304" s="20" t="s">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A305" s="18"/>
+      <c r="B305" s="18"/>
+      <c r="C305" s="18"/>
+      <c r="D305" s="19" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A305" s="19"/>
-      <c r="B305" s="19"/>
-      <c r="C305" s="19"/>
-      <c r="D305" s="20" t="s">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306" s="18"/>
+      <c r="B306" s="18"/>
+      <c r="C306" s="18"/>
+      <c r="D306" s="19" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A306" s="19"/>
-      <c r="B306" s="19"/>
-      <c r="C306" s="19"/>
-      <c r="D306" s="20" t="s">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307" s="18"/>
+      <c r="B307" s="18"/>
+      <c r="C307" s="18"/>
+      <c r="D307" s="19" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A307" s="19"/>
-      <c r="B307" s="19"/>
-      <c r="C307" s="19"/>
-      <c r="D307" s="20" t="s">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308" s="18"/>
+      <c r="B308" s="18"/>
+      <c r="C308" s="18"/>
+      <c r="D308" s="19" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A308" s="19"/>
-      <c r="B308" s="19"/>
-      <c r="C308" s="19"/>
-      <c r="D308" s="20" t="s">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309" s="18"/>
+      <c r="B309" s="18"/>
+      <c r="C309" s="18"/>
+      <c r="D309" s="19" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A309" s="19"/>
-      <c r="B309" s="19"/>
-      <c r="C309" s="19"/>
-      <c r="D309" s="20" t="s">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310" s="18"/>
+      <c r="B310" s="18"/>
+      <c r="C310" s="18"/>
+      <c r="D310" s="19" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A310" s="19"/>
-      <c r="B310" s="19"/>
-      <c r="C310" s="19"/>
-      <c r="D310" s="20" t="s">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A311" s="18"/>
+      <c r="B311" s="18"/>
+      <c r="C311" s="18"/>
+      <c r="D311" s="19" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A311" s="19"/>
-      <c r="B311" s="19"/>
-      <c r="C311" s="19"/>
-      <c r="D311" s="20" t="s">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A312" s="18"/>
+      <c r="B312" s="18"/>
+      <c r="C312" s="18"/>
+      <c r="D312" s="19" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A312" s="19"/>
-      <c r="B312" s="19"/>
-      <c r="C312" s="19"/>
-      <c r="D312" s="20" t="s">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A313" s="18"/>
+      <c r="B313" s="18"/>
+      <c r="C313" s="18"/>
+      <c r="D313" s="19" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A313" s="19"/>
-      <c r="B313" s="19"/>
-      <c r="C313" s="19"/>
-      <c r="D313" s="20" t="s">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A314" s="18"/>
+      <c r="B314" s="18"/>
+      <c r="C314" s="18"/>
+      <c r="D314" s="19" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A314" s="19"/>
-      <c r="B314" s="19"/>
-      <c r="C314" s="19"/>
-      <c r="D314" s="20" t="s">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A315" s="18"/>
+      <c r="B315" s="18"/>
+      <c r="C315" s="18"/>
+      <c r="D315" s="19" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A315" s="19"/>
-      <c r="B315" s="19"/>
-      <c r="C315" s="19"/>
-      <c r="D315" s="20" t="s">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A316" s="18"/>
+      <c r="B316" s="18"/>
+      <c r="C316" s="18"/>
+      <c r="D316" s="19" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A316" s="19"/>
-      <c r="B316" s="19"/>
-      <c r="C316" s="19"/>
-      <c r="D316" s="20" t="s">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A317" s="18"/>
+      <c r="B317" s="18"/>
+      <c r="C317" s="18"/>
+      <c r="D317" s="19" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A317" s="19"/>
-      <c r="B317" s="19"/>
-      <c r="C317" s="19"/>
-      <c r="D317" s="20" t="s">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A318" s="18"/>
+      <c r="B318" s="18"/>
+      <c r="C318" s="18"/>
+      <c r="D318" s="19" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A318" s="19"/>
-      <c r="B318" s="19"/>
-      <c r="C318" s="19"/>
-      <c r="D318" s="20" t="s">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A319" s="18"/>
+      <c r="B319" s="18"/>
+      <c r="C319" s="18"/>
+      <c r="D319" s="19" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A319" s="19"/>
-      <c r="B319" s="19"/>
-      <c r="C319" s="19"/>
-      <c r="D319" s="20" t="s">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A320" s="18"/>
+      <c r="B320" s="18"/>
+      <c r="C320" s="18"/>
+      <c r="D320" s="19" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A320" s="19"/>
-      <c r="B320" s="19"/>
-      <c r="C320" s="19"/>
-      <c r="D320" s="20" t="s">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A321" s="18"/>
+      <c r="B321" s="18"/>
+      <c r="C321" s="18"/>
+      <c r="D321" s="19" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A321" s="19"/>
-      <c r="B321" s="19"/>
-      <c r="C321" s="19"/>
-      <c r="D321" s="20" t="s">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A322" s="18"/>
+      <c r="B322" s="18"/>
+      <c r="C322" s="18"/>
+      <c r="D322" s="19" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A322" s="19"/>
-      <c r="B322" s="19"/>
-      <c r="C322" s="19"/>
-      <c r="D322" s="20" t="s">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A323" s="18"/>
+      <c r="B323" s="18"/>
+      <c r="C323" s="18"/>
+      <c r="D323" s="19" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A323" s="19"/>
-      <c r="B323" s="19"/>
-      <c r="C323" s="19"/>
-      <c r="D323" s="20" t="s">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A324" s="18"/>
+      <c r="B324" s="18"/>
+      <c r="C324" s="18"/>
+      <c r="D324" s="19" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A324" s="19"/>
-      <c r="B324" s="19"/>
-      <c r="C324" s="19"/>
-      <c r="D324" s="20" t="s">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A325" s="18"/>
+      <c r="B325" s="18"/>
+      <c r="C325" s="18"/>
+      <c r="D325" s="19" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A325" s="19"/>
-      <c r="B325" s="19"/>
-      <c r="C325" s="19"/>
-      <c r="D325" s="20" t="s">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A326" s="18"/>
+      <c r="B326" s="18"/>
+      <c r="C326" s="18"/>
+      <c r="D326" s="19" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A326" s="19"/>
-      <c r="B326" s="19"/>
-      <c r="C326" s="19"/>
-      <c r="D326" s="20" t="s">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A327" s="18"/>
+      <c r="B327" s="18"/>
+      <c r="C327" s="18"/>
+      <c r="D327" s="19" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A327" s="19"/>
-      <c r="B327" s="19"/>
-      <c r="C327" s="19"/>
-      <c r="D327" s="20" t="s">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A328" s="18"/>
+      <c r="B328" s="18"/>
+      <c r="C328" s="18"/>
+      <c r="D328" s="19" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A328" s="19"/>
-      <c r="B328" s="19"/>
-      <c r="C328" s="19"/>
-      <c r="D328" s="20" t="s">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A329" s="18"/>
+      <c r="B329" s="18"/>
+      <c r="C329" s="18"/>
+      <c r="D329" s="19" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A329" s="19"/>
-      <c r="B329" s="19"/>
-      <c r="C329" s="19"/>
-      <c r="D329" s="20" t="s">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A330" s="18"/>
+      <c r="B330" s="18"/>
+      <c r="C330" s="18"/>
+      <c r="D330" s="19" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A330" s="19"/>
-      <c r="B330" s="19"/>
-      <c r="C330" s="19"/>
-      <c r="D330" s="20" t="s">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A331" s="18"/>
+      <c r="B331" s="18"/>
+      <c r="C331" s="18"/>
+      <c r="D331" s="19" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A331" s="19"/>
-      <c r="B331" s="19"/>
-      <c r="C331" s="19"/>
-      <c r="D331" s="20" t="s">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A332" s="18"/>
+      <c r="B332" s="18"/>
+      <c r="C332" s="18"/>
+      <c r="D332" s="19" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A332" s="19"/>
-      <c r="B332" s="19"/>
-      <c r="C332" s="19"/>
-      <c r="D332" s="20" t="s">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A333" s="18"/>
+      <c r="B333" s="18"/>
+      <c r="C333" s="18"/>
+      <c r="D333" s="19" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A333" s="19"/>
-      <c r="B333" s="19"/>
-      <c r="C333" s="19"/>
-      <c r="D333" s="20" t="s">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A334" s="18"/>
+      <c r="B334" s="18"/>
+      <c r="C334" s="18"/>
+      <c r="D334" s="19" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A334" s="19"/>
-      <c r="B334" s="19"/>
-      <c r="C334" s="19"/>
-      <c r="D334" s="20" t="s">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A335" s="18"/>
+      <c r="B335" s="18"/>
+      <c r="C335" s="18"/>
+      <c r="D335" s="19" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A335" s="19"/>
-      <c r="B335" s="19"/>
-      <c r="C335" s="19"/>
-      <c r="D335" s="20" t="s">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A336" s="18"/>
+      <c r="B336" s="18"/>
+      <c r="C336" s="18"/>
+      <c r="D336" s="19" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A336" s="19"/>
-      <c r="B336" s="19"/>
-      <c r="C336" s="19"/>
-      <c r="D336" s="20" t="s">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A337" s="18"/>
+      <c r="B337" s="18"/>
+      <c r="C337" s="18"/>
+      <c r="D337" s="19" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A337" s="19"/>
-      <c r="B337" s="19"/>
-      <c r="C337" s="19"/>
-      <c r="D337" s="20" t="s">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A338" s="18"/>
+      <c r="B338" s="18"/>
+      <c r="C338" s="18"/>
+      <c r="D338" s="19" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A338" s="19"/>
-      <c r="B338" s="19"/>
-      <c r="C338" s="19"/>
-      <c r="D338" s="20" t="s">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A339" s="18"/>
+      <c r="B339" s="18"/>
+      <c r="C339" s="18"/>
+      <c r="D339" s="19" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A339" s="19"/>
-      <c r="B339" s="19"/>
-      <c r="C339" s="19"/>
-      <c r="D339" s="20" t="s">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A340" s="18"/>
+      <c r="B340" s="18"/>
+      <c r="C340" s="18"/>
+      <c r="D340" s="19" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A340" s="19"/>
-      <c r="B340" s="19"/>
-      <c r="C340" s="19"/>
-      <c r="D340" s="20" t="s">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A341" s="18"/>
+      <c r="B341" s="18"/>
+      <c r="C341" s="18"/>
+      <c r="D341" s="19" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A341" s="19"/>
-      <c r="B341" s="19"/>
-      <c r="C341" s="19"/>
-      <c r="D341" s="20" t="s">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A342" s="18"/>
+      <c r="B342" s="18"/>
+      <c r="C342" s="18"/>
+      <c r="D342" s="19" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A342" s="19"/>
-      <c r="B342" s="19"/>
-      <c r="C342" s="19"/>
-      <c r="D342" s="20" t="s">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A343" s="18"/>
+      <c r="B343" s="18"/>
+      <c r="C343" s="18"/>
+      <c r="D343" s="19" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A343" s="19"/>
-      <c r="B343" s="19"/>
-      <c r="C343" s="19"/>
-      <c r="D343" s="20" t="s">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A344" s="18"/>
+      <c r="B344" s="18"/>
+      <c r="C344" s="18"/>
+      <c r="D344" s="19" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A344" s="19"/>
-      <c r="B344" s="19"/>
-      <c r="C344" s="19"/>
-      <c r="D344" s="20" t="s">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A345" s="18"/>
+      <c r="B345" s="18"/>
+      <c r="C345" s="18"/>
+      <c r="D345" s="19" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A345" s="19"/>
-      <c r="B345" s="19"/>
-      <c r="C345" s="19"/>
-      <c r="D345" s="20" t="s">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A346" s="18"/>
+      <c r="B346" s="18"/>
+      <c r="C346" s="18"/>
+      <c r="D346" s="19" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A346" s="19"/>
-      <c r="B346" s="19"/>
-      <c r="C346" s="19"/>
-      <c r="D346" s="20" t="s">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A347" s="18"/>
+      <c r="B347" s="18"/>
+      <c r="C347" s="18"/>
+      <c r="D347" s="19" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A347" s="19"/>
-      <c r="B347" s="19"/>
-      <c r="C347" s="19"/>
-      <c r="D347" s="20" t="s">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A348" s="18"/>
+      <c r="B348" s="18"/>
+      <c r="C348" s="18"/>
+      <c r="D348" s="19" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A348" s="19"/>
-      <c r="B348" s="19"/>
-      <c r="C348" s="19"/>
-      <c r="D348" s="20" t="s">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A349" s="18"/>
+      <c r="B349" s="18"/>
+      <c r="C349" s="18"/>
+      <c r="D349" s="19" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A349" s="19"/>
-      <c r="B349" s="19"/>
-      <c r="C349" s="19"/>
-      <c r="D349" s="20" t="s">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A350" s="18"/>
+      <c r="B350" s="18"/>
+      <c r="C350" s="18"/>
+      <c r="D350" s="19" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A350" s="19"/>
-      <c r="B350" s="19"/>
-      <c r="C350" s="19"/>
-      <c r="D350" s="20" t="s">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A351" s="18"/>
+      <c r="B351" s="18"/>
+      <c r="C351" s="18"/>
+      <c r="D351" s="19" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A351" s="19"/>
-      <c r="B351" s="19"/>
-      <c r="C351" s="19"/>
-      <c r="D351" s="20" t="s">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A352" s="18"/>
+      <c r="B352" s="18"/>
+      <c r="C352" s="18"/>
+      <c r="D352" s="19" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A352" s="19"/>
-      <c r="B352" s="19"/>
-      <c r="C352" s="19"/>
-      <c r="D352" s="20" t="s">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A353" s="18"/>
+      <c r="B353" s="18"/>
+      <c r="C353" s="18"/>
+      <c r="D353" s="19" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A353" s="19"/>
-      <c r="B353" s="19"/>
-      <c r="C353" s="19"/>
-      <c r="D353" s="20" t="s">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A354" s="18"/>
+      <c r="B354" s="18"/>
+      <c r="C354" s="18"/>
+      <c r="D354" s="19" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A354" s="19"/>
-      <c r="B354" s="19"/>
-      <c r="C354" s="19"/>
-      <c r="D354" s="20" t="s">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A355" s="18"/>
+      <c r="B355" s="18"/>
+      <c r="C355" s="18"/>
+      <c r="D355" s="19" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A355" s="19"/>
-      <c r="B355" s="19"/>
-      <c r="C355" s="19"/>
-      <c r="D355" s="20" t="s">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A356" s="18"/>
+      <c r="B356" s="18"/>
+      <c r="C356" s="18"/>
+      <c r="D356" s="19" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A356" s="19"/>
-      <c r="B356" s="19"/>
-      <c r="C356" s="19"/>
-      <c r="D356" s="20" t="s">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A357" s="18"/>
+      <c r="B357" s="18"/>
+      <c r="C357" s="18"/>
+      <c r="D357" s="19" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A357" s="19"/>
-      <c r="B357" s="19"/>
-      <c r="C357" s="19"/>
-      <c r="D357" s="20" t="s">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A358" s="18"/>
+      <c r="B358" s="18"/>
+      <c r="C358" s="18"/>
+      <c r="D358" s="19" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A358" s="19"/>
-      <c r="B358" s="19"/>
-      <c r="C358" s="19"/>
-      <c r="D358" s="20" t="s">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A359" s="18"/>
+      <c r="B359" s="18"/>
+      <c r="C359" s="18"/>
+      <c r="D359" s="19" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A359" s="19"/>
-      <c r="B359" s="19"/>
-      <c r="C359" s="19"/>
-      <c r="D359" s="20" t="s">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A360" s="18"/>
+      <c r="B360" s="18"/>
+      <c r="C360" s="18"/>
+      <c r="D360" s="19" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A360" s="19"/>
-      <c r="B360" s="19"/>
-      <c r="C360" s="19"/>
-      <c r="D360" s="20" t="s">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A361" s="18"/>
+      <c r="B361" s="18"/>
+      <c r="C361" s="18"/>
+      <c r="D361" s="19" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A361" s="19"/>
-      <c r="B361" s="19"/>
-      <c r="C361" s="19"/>
-      <c r="D361" s="20" t="s">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A362" s="18"/>
+      <c r="B362" s="18"/>
+      <c r="C362" s="18"/>
+      <c r="D362" s="19" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A362" s="19"/>
-      <c r="B362" s="19"/>
-      <c r="C362" s="19"/>
-      <c r="D362" s="20" t="s">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A363" s="18"/>
+      <c r="B363" s="18"/>
+      <c r="C363" s="18"/>
+      <c r="D363" s="19" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A363" s="19"/>
-      <c r="B363" s="19"/>
-      <c r="C363" s="19"/>
-      <c r="D363" s="20" t="s">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A364" s="18"/>
+      <c r="B364" s="18"/>
+      <c r="C364" s="18"/>
+      <c r="D364" s="19" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A364" s="19"/>
-      <c r="B364" s="19"/>
-      <c r="C364" s="19"/>
-      <c r="D364" s="20" t="s">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A365" s="18"/>
+      <c r="B365" s="18"/>
+      <c r="C365" s="18"/>
+      <c r="D365" s="19" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A365" s="19"/>
-      <c r="B365" s="19"/>
-      <c r="C365" s="19"/>
-      <c r="D365" s="20" t="s">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A366" s="18"/>
+      <c r="B366" s="18"/>
+      <c r="C366" s="18"/>
+      <c r="D366" s="19" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A366" s="19"/>
-      <c r="B366" s="19"/>
-      <c r="C366" s="19"/>
-      <c r="D366" s="20" t="s">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A367" s="18"/>
+      <c r="B367" s="18"/>
+      <c r="C367" s="18"/>
+      <c r="D367" s="19" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A367" s="19"/>
-      <c r="B367" s="19"/>
-      <c r="C367" s="19"/>
-      <c r="D367" s="20" t="s">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A368" s="18"/>
+      <c r="B368" s="18"/>
+      <c r="C368" s="18"/>
+      <c r="D368" s="19" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A368" s="19"/>
-      <c r="B368" s="19"/>
-      <c r="C368" s="19"/>
-      <c r="D368" s="20" t="s">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A369" s="18"/>
+      <c r="B369" s="18"/>
+      <c r="C369" s="18"/>
+      <c r="D369" s="19" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A369" s="19"/>
-      <c r="B369" s="19"/>
-      <c r="C369" s="19"/>
-      <c r="D369" s="20" t="s">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A370" s="18"/>
+      <c r="B370" s="18"/>
+      <c r="C370" s="18"/>
+      <c r="D370" s="19" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A370" s="19"/>
-      <c r="B370" s="19"/>
-      <c r="C370" s="19"/>
-      <c r="D370" s="20" t="s">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A371" s="18"/>
+      <c r="B371" s="18"/>
+      <c r="C371" s="18"/>
+      <c r="D371" s="19" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A371" s="19"/>
-      <c r="B371" s="19"/>
-      <c r="C371" s="19"/>
-      <c r="D371" s="20" t="s">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A372" s="18"/>
+      <c r="B372" s="18"/>
+      <c r="C372" s="18"/>
+      <c r="D372" s="19" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A372" s="19"/>
-      <c r="B372" s="19"/>
-      <c r="C372" s="19"/>
-      <c r="D372" s="20" t="s">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A373" s="18"/>
+      <c r="B373" s="18"/>
+      <c r="C373" s="18"/>
+      <c r="D373" s="19" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A373" s="19"/>
-      <c r="B373" s="19"/>
-      <c r="C373" s="19"/>
-      <c r="D373" s="20" t="s">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A374" s="18"/>
+      <c r="B374" s="18"/>
+      <c r="C374" s="18"/>
+      <c r="D374" s="19" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A374" s="19"/>
-      <c r="B374" s="19"/>
-      <c r="C374" s="19"/>
-      <c r="D374" s="20" t="s">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A375" s="18"/>
+      <c r="B375" s="18"/>
+      <c r="C375" s="18"/>
+      <c r="D375" s="19" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A375" s="19"/>
-      <c r="B375" s="19"/>
-      <c r="C375" s="19"/>
-      <c r="D375" s="20" t="s">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A376" s="18"/>
+      <c r="B376" s="18"/>
+      <c r="C376" s="18"/>
+      <c r="D376" s="19" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A376" s="19"/>
-      <c r="B376" s="19"/>
-      <c r="C376" s="19"/>
-      <c r="D376" s="20" t="s">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A377" s="18"/>
+      <c r="B377" s="18"/>
+      <c r="C377" s="18"/>
+      <c r="D377" s="19" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A377" s="19"/>
-      <c r="B377" s="19"/>
-      <c r="C377" s="19"/>
-      <c r="D377" s="20" t="s">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A378" s="18"/>
+      <c r="B378" s="18"/>
+      <c r="C378" s="18"/>
+      <c r="D378" s="19" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A378" s="19"/>
-      <c r="B378" s="19"/>
-      <c r="C378" s="19"/>
-      <c r="D378" s="20" t="s">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A379" s="18"/>
+      <c r="B379" s="18"/>
+      <c r="C379" s="18"/>
+      <c r="D379" s="19" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A379" s="19"/>
-      <c r="B379" s="19"/>
-      <c r="C379" s="19"/>
-      <c r="D379" s="20" t="s">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A380" s="18"/>
+      <c r="B380" s="18"/>
+      <c r="C380" s="18"/>
+      <c r="D380" s="19" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A380" s="19"/>
-      <c r="B380" s="19"/>
-      <c r="C380" s="19"/>
-      <c r="D380" s="20" t="s">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A381" s="18"/>
+      <c r="B381" s="18"/>
+      <c r="C381" s="18"/>
+      <c r="D381" s="19" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A381" s="19"/>
-      <c r="B381" s="19"/>
-      <c r="C381" s="19"/>
-      <c r="D381" s="20" t="s">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A382" s="18"/>
+      <c r="B382" s="18"/>
+      <c r="C382" s="18"/>
+      <c r="D382" s="19" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A382" s="19"/>
-      <c r="B382" s="19"/>
-      <c r="C382" s="19"/>
-      <c r="D382" s="20" t="s">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A383" s="18"/>
+      <c r="B383" s="18"/>
+      <c r="C383" s="18"/>
+      <c r="D383" s="19" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A383" s="19"/>
-      <c r="B383" s="19"/>
-      <c r="C383" s="19"/>
-      <c r="D383" s="20" t="s">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A384" s="18"/>
+      <c r="B384" s="18"/>
+      <c r="C384" s="18"/>
+      <c r="D384" s="19" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A384" s="19"/>
-      <c r="B384" s="19"/>
-      <c r="C384" s="19"/>
-      <c r="D384" s="20" t="s">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A385" s="18"/>
+      <c r="B385" s="18"/>
+      <c r="C385" s="18"/>
+      <c r="D385" s="19" t="s">
         <v>441</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A385" s="19"/>
-      <c r="B385" s="19"/>
-      <c r="C385" s="19"/>
-      <c r="D385" s="20" t="s">
-        <v>442</v>
       </c>
     </row>
   </sheetData>
